--- a/523/data/friedrich.xlsx
+++ b/523/data/friedrich.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stuff" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>n</t>
   </si>
@@ -54,13 +54,16 @@
     <t>dN</t>
   </si>
   <si>
-    <t>Nunter</t>
-  </si>
-  <si>
     <t>N/40s</t>
   </si>
   <si>
     <t>dN/40s</t>
+  </si>
+  <si>
+    <t>dNunten</t>
+  </si>
+  <si>
+    <t>Nunten</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,10 +1927,10 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
@@ -2752,15 +2755,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:H25"/>
+  <dimension ref="C4:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2777,10 +2780,13 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>40</v>
       </c>
@@ -2795,11 +2801,15 @@
         <v>7.745966692414834</v>
       </c>
       <c r="H5">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I5">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>40</v>
       </c>
@@ -2814,11 +2824,15 @@
         <v>6.7082039324993694</v>
       </c>
       <c r="H6">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I6">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>26</v>
       </c>
@@ -2830,11 +2844,15 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="H7">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I7">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>32.1</v>
       </c>
@@ -2846,11 +2864,15 @@
         <v>6.6332495807107996</v>
       </c>
       <c r="H8">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I8">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>40.1</v>
       </c>
@@ -2862,11 +2884,15 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I9">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>48.1</v>
       </c>
@@ -2878,11 +2904,15 @@
         <v>6.8556546004010439</v>
       </c>
       <c r="H10">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I10">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>56.2</v>
       </c>
@@ -2894,11 +2924,15 @@
         <v>7.3484692283495345</v>
       </c>
       <c r="H11">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I11">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>64.3</v>
       </c>
@@ -2910,11 +2944,15 @@
         <v>9.1651513899116797</v>
       </c>
       <c r="H12">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I12">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>72.400000000000006</v>
       </c>
@@ -2926,11 +2964,15 @@
         <v>11.532562594670797</v>
       </c>
       <c r="H13">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I13">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>80</v>
       </c>
@@ -2942,11 +2984,15 @@
         <v>14.142135623730951</v>
       </c>
       <c r="H14">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I14">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>88.1</v>
       </c>
@@ -2958,11 +3004,15 @@
         <v>14.866068747318506</v>
       </c>
       <c r="H15">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I15">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>96.3</v>
       </c>
@@ -2974,11 +3024,15 @@
         <v>14.730919862656235</v>
       </c>
       <c r="H16">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I16">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>104</v>
       </c>
@@ -2990,11 +3044,15 @@
         <v>16.124515496597098</v>
       </c>
       <c r="H17">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I17">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>112</v>
       </c>
@@ -3006,11 +3064,15 @@
         <v>14.212670403551895</v>
       </c>
       <c r="H18">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I18">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>120</v>
       </c>
@@ -3022,11 +3084,15 @@
         <v>14.071247279470288</v>
       </c>
       <c r="H19">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I19">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>128</v>
       </c>
@@ -3038,11 +3104,15 @@
         <v>12.489995996796797</v>
       </c>
       <c r="H20">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I20">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>135.9</v>
       </c>
@@ -3054,11 +3124,15 @@
         <v>11.661903789690601</v>
       </c>
       <c r="H21">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I21">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>143.9</v>
       </c>
@@ -3070,11 +3144,15 @@
         <v>10.488088481701515</v>
       </c>
       <c r="H22">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I22">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>151.9</v>
       </c>
@@ -3086,11 +3164,15 @@
         <v>9.0553851381374173</v>
       </c>
       <c r="H23">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I23">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>160.30000000000001</v>
       </c>
@@ -3102,11 +3184,15 @@
         <v>7.6811457478686078</v>
       </c>
       <c r="H24">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I24">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>169.3</v>
       </c>
@@ -3118,8 +3204,12 @@
         <v>7</v>
       </c>
       <c r="H25">
-        <f>Stuff!$F$6</f>
-        <v>259</v>
+        <f>Stuff!$I$6</f>
+        <v>51.8</v>
+      </c>
+      <c r="I25">
+        <f>Stuff!$J$6</f>
+        <v>3.2186953878862163</v>
       </c>
     </row>
   </sheetData>

--- a/523/data/friedrich.xlsx
+++ b/523/data/friedrich.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>n</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>Nunten</t>
+  </si>
+  <si>
+    <t>mitte</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>Boffset</t>
+  </si>
+  <si>
+    <t>dBoffset</t>
+  </si>
+  <si>
+    <t>Breal</t>
+  </si>
+  <si>
+    <t>dBreal</t>
   </si>
 </sst>
 </file>
@@ -407,11 +428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283340160"/>
-        <c:axId val="283366528"/>
+        <c:axId val="189695488"/>
+        <c:axId val="189697024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283340160"/>
+        <c:axId val="189695488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,12 +442,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283366528"/>
+        <c:crossAx val="189697024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283366528"/>
+        <c:axId val="189697024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283340160"/>
+        <c:crossAx val="189695488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -634,11 +655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283280512"/>
-        <c:axId val="283282048"/>
+        <c:axId val="189721600"/>
+        <c:axId val="189469440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283280512"/>
+        <c:axId val="189721600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,12 +669,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283282048"/>
+        <c:crossAx val="189469440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283282048"/>
+        <c:axId val="189469440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283280512"/>
+        <c:crossAx val="189721600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -896,11 +917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284389760"/>
-        <c:axId val="284391296"/>
+        <c:axId val="189608320"/>
+        <c:axId val="189609856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284389760"/>
+        <c:axId val="189608320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,12 +931,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284391296"/>
+        <c:crossAx val="189609856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284391296"/>
+        <c:axId val="189609856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284389760"/>
+        <c:crossAx val="189608320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -962,7 +983,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -976,7 +996,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ti!$F$4</c:f>
+              <c:f>ti!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1064,7 +1084,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ti!$F$5:$F$143</c:f>
+              <c:f>ti!$I$5:$I$143</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="139"/>
@@ -1144,11 +1164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284412160"/>
-        <c:axId val="283648000"/>
+        <c:axId val="189651200"/>
+        <c:axId val="189652992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284412160"/>
+        <c:axId val="189651200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,12 +1178,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283648000"/>
+        <c:crossAx val="189652992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283648000"/>
+        <c:axId val="189652992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,14 +1194,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284412160"/>
+        <c:crossAx val="189651200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1393,11 +1412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284500352"/>
-        <c:axId val="284501888"/>
+        <c:axId val="190103936"/>
+        <c:axId val="190105472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284500352"/>
+        <c:axId val="190103936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,12 +1426,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284501888"/>
+        <c:crossAx val="190105472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284501888"/>
+        <c:axId val="190105472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284500352"/>
+        <c:crossAx val="190103936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1549,13 +1568,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -2755,15 +2774,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:I25"/>
+  <dimension ref="C4:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2774,19 +2793,34 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>40</v>
       </c>
@@ -2794,22 +2828,37 @@
         <v>10</v>
       </c>
       <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H5">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I5">
         <v>60</v>
       </c>
-      <c r="G5">
-        <f>SQRT(F5)</f>
+      <c r="J5">
+        <f>SQRT(I5)</f>
         <v>7.745966692414834</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f>E5-G5</f>
+        <v>0.78000000000000114</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>40</v>
       </c>
@@ -2817,399 +2866,699 @@
         <v>18</v>
       </c>
       <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H6">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I6">
         <v>45</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G25" si="0">SQRT(F6)</f>
+      <c r="J6">
+        <f t="shared" ref="J6:J25" si="0">SQRT(I6)</f>
         <v>6.7082039324993694</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" ref="M6:M25" si="1">E6-G6</f>
+        <v>8.7800000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>26</v>
       </c>
       <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H7">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I7">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>7.0710678118654755</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>32.1</v>
       </c>
       <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H8">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I8">
         <v>44</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>6.6332495807107996</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>22.880000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>40.1</v>
       </c>
       <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H9">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I9">
         <v>36</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>30.880000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>48.1</v>
       </c>
       <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H10">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I10">
         <v>47</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>6.8556546004010439</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>56.2</v>
       </c>
       <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H11">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I11">
         <v>54</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>7.3484692283495345</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>46.980000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>64.3</v>
       </c>
       <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H12">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I12">
         <v>84</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>9.1651513899116797</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>72.400000000000006</v>
       </c>
       <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H13">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I13">
         <v>133</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>11.532562594670797</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>63.180000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>80</v>
       </c>
       <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H14">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I14">
         <v>200</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>14.142135623730951</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>70.78</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>88.1</v>
       </c>
       <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H15">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I15">
         <v>221</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>14.866068747318506</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>78.88</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>96.3</v>
       </c>
       <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H16">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I16">
         <v>217</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>14.730919862656235</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>87.08</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>104</v>
       </c>
       <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H17">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I17">
         <v>260</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>16.124515496597098</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>94.78</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>112</v>
       </c>
       <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H18">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I18">
         <v>202</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>14.212670403551895</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>102.78</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>120</v>
       </c>
       <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H19">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I19">
         <v>198</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>14.071247279470288</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>110.78</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>128</v>
       </c>
       <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H20">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I20">
         <v>156</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>12.489995996796797</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>118.78</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>135.9</v>
       </c>
       <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H21">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I21">
         <v>136</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>11.661903789690601</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>126.68</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>143.9</v>
       </c>
       <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H22">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I22">
         <v>110</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>10.488088481701515</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>134.68</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>151.9</v>
       </c>
       <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H23">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I23">
         <v>82</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>9.0553851381374173</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>142.68</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>160.30000000000001</v>
       </c>
       <c r="F24">
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H24">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I24">
         <v>59</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>7.6811457478686078</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
       </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>151.08000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>169.3</v>
       </c>
       <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <f>offset!$E$2</f>
+        <v>9.2199999999999989</v>
+      </c>
+      <c r="H25">
+        <f>offset!$E$3</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+      <c r="I25">
         <v>49</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <f>Stuff!$I$6</f>
         <v>51.8</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <f>Stuff!$J$6</f>
         <v>3.2186953878862163</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>160.08000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3421,14 +3770,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E9"/>
+  <dimension ref="C2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(D5:D9)</f>
+        <v>4.82</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(E5:E9)</f>
+        <v>9.2199999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.STDEV.S(D5:D9)</f>
+        <v>4.472135954999603E-2</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.STDEV.S(E5:E9)</f>
+        <v>8.3666002653408109E-2</v>
+      </c>
+    </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>

--- a/523/data/friedrich.xlsx
+++ b/523/data/friedrich.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>n</t>
   </si>
@@ -72,19 +72,64 @@
     <t>d</t>
   </si>
   <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>Boffset</t>
-  </si>
-  <si>
-    <t>dBoffset</t>
-  </si>
-  <si>
     <t>Breal</t>
   </si>
   <si>
     <t>dBreal</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>dUB</t>
+  </si>
+  <si>
+    <t>Uboffset</t>
+  </si>
+  <si>
+    <t>dUBoffset</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>deta</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>deps</t>
+  </si>
+  <si>
+    <t>ys</t>
+  </si>
+  <si>
+    <t>dys</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>dbeta</t>
+  </si>
+  <si>
+    <t>etaz</t>
+  </si>
+  <si>
+    <t>detaz</t>
+  </si>
+  <si>
+    <t>fermi</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>dfermi</t>
+  </si>
+  <si>
+    <t>y2</t>
   </si>
 </sst>
 </file>
@@ -428,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189695488"/>
-        <c:axId val="189697024"/>
+        <c:axId val="291601792"/>
+        <c:axId val="291624064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189695488"/>
+        <c:axId val="291601792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,12 +487,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189697024"/>
+        <c:crossAx val="291624064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189697024"/>
+        <c:axId val="291624064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189695488"/>
+        <c:crossAx val="291601792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -655,11 +700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189721600"/>
-        <c:axId val="189469440"/>
+        <c:axId val="291538048"/>
+        <c:axId val="291539584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189721600"/>
+        <c:axId val="291538048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,12 +714,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189469440"/>
+        <c:crossAx val="291539584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189469440"/>
+        <c:axId val="291539584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189721600"/>
+        <c:crossAx val="291538048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -917,11 +962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189608320"/>
-        <c:axId val="189609856"/>
+        <c:axId val="292389248"/>
+        <c:axId val="292390784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189608320"/>
+        <c:axId val="292389248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,12 +976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189609856"/>
+        <c:crossAx val="292390784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189609856"/>
+        <c:axId val="292390784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189608320"/>
+        <c:crossAx val="292389248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -983,6 +1028,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1164,11 +1210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189651200"/>
-        <c:axId val="189652992"/>
+        <c:axId val="292415744"/>
+        <c:axId val="292298752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189651200"/>
+        <c:axId val="292415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,12 +1224,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189652992"/>
+        <c:crossAx val="292298752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189652992"/>
+        <c:axId val="292298752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,13 +1240,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189651200"/>
+        <c:crossAx val="292415744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1229,8 +1276,660 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ti!$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ti!$Q$5:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0000514084785841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0064928909833393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0235160280132403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0432979217845688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0775685934547277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1204773953989433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1717522552143862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2299240958693345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2940631343176421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.358917811937131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4323153261764674</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5104683252554487</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5868739646235299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6689128496119863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7532835536786398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8396652792288057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9266764091564521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0162938043846688</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1072331208482842</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2039630490550426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3088368243771584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ti!$AA$5:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>61.508597070775743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.097278292956453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.502051664289013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.569571914675187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.898674842076872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.430262173575315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.907642128265323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.625378982276217</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.504352454536956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.336207370842274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.638785898887491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.17975712273082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.64488903296728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.363170884351447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.386975200928831</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.124198716861244</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.716398590574485</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.652462398738784</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.535521331935129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.085561277925265</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.581881434113001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ti!$AB$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ti!$Q$5:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0000514084785841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0064928909833393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0235160280132403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0432979217845688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0775685934547277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1204773953989433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1717522552143862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2299240958693345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2940631343176421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.358917811937131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4323153261764674</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5104683252554487</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5868739646235299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6689128496119863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7532835536786398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8396652792288057</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9266764091564521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0162938043846688</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1072331208482842</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2039630490550426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3088368243771584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ti!$AB$5:$AB$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>69.644771865692874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.919463470881158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.549181457680277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.781160618283298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.259647272454945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2481321417796494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.864911324156691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8424957276181075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.12813660366159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.450758769005461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.106168728168219</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.199652649488197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.440641746024788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6173569325914308</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0176065415891848</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7094892240223745</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9275956044817715</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0539936963465459</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1470110035678953</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3426102165994247</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8913289187523574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78226560"/>
+        <c:axId val="293121408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78226560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="293121408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="293121408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78226560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ti!$AB$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ti!$Q$6:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0064928909833393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0235160280132403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0432979217845688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0775685934547277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1204773953989433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1717522552143862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2299240958693345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2940631343176421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.358917811937131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4323153261764674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5104683252554487</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5868739646235299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6689128496119863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7532835536786398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8396652792288057</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9266764091564521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0162938043846688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1072331208482842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2039630490550426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3088368243771584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ti!$AB$6:$AB$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>17.919463470881158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.549181457680277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.781160618283298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.259647272454945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2481321417796494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.864911324156691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8424957276181075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.12813660366159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.450758769005461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.106168728168219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.199652649488197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.440641746024788</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6173569325914308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0176065415891848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7094892240223745</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9275956044817715</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0539936963465459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1470110035678953</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3426102165994247</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8913289187523574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78677120"/>
+        <c:axId val="78851072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78677120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78851072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78851072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78677120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1412,11 +2111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190103936"/>
-        <c:axId val="190105472"/>
+        <c:axId val="292495744"/>
+        <c:axId val="292497280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190103936"/>
+        <c:axId val="292495744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,12 +2125,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190105472"/>
+        <c:crossAx val="292497280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190105472"/>
+        <c:axId val="292497280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,14 +2141,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190103936"/>
+        <c:crossAx val="292495744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1591,6 +2289,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>544606</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42582</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2774,15 +3534,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N25"/>
+  <dimension ref="C4:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -2790,16 +3554,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
@@ -2814,13 +3578,55 @@
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>40</v>
       </c>
@@ -2857,8 +3663,68 @@
         <f>E5-G5</f>
         <v>0.78000000000000114</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>SQRT(F5^2+H5^2)</f>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O5">
+        <f>M5*0.013</f>
+        <v>1.0140000000000014E-2</v>
+      </c>
+      <c r="P5">
+        <f>N5*0.013</f>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q5">
+        <f>SQRT(O5^2+1)</f>
+        <v>1.0000514084785841</v>
+      </c>
+      <c r="R5">
+        <f>O5/Q5*P5</f>
+        <v>1.7186341697397246E-5</v>
+      </c>
+      <c r="S5">
+        <f>SQRT(I5/O5/P5)</f>
+        <v>1868.4124013302171</v>
+      </c>
+      <c r="T5">
+        <f>S5*SQRT((0.5*J5/I5)^2+(0.5*P5/O5)^2+(0.5*R5/Q5)^2)</f>
+        <v>197.31180338063825</v>
+      </c>
+      <c r="U5">
+        <f>O5/Q5</f>
+        <v>1.0139478744824107E-2</v>
+      </c>
+      <c r="V5">
+        <f>U5*SQRT((P5/O5)^2+(R5/Q5)^2)</f>
+        <v>1.6949055017972813E-3</v>
+      </c>
+      <c r="W5">
+        <f>1/137*204/U5</f>
+        <v>146.85676969840543</v>
+      </c>
+      <c r="X5">
+        <f>W5*V5/U5</f>
+        <v>24.548436187122903</v>
+      </c>
+      <c r="Y5">
+        <f>2*PI()*W5/(1-EXP(-2*PI()*W5))</f>
+        <v>922.72829762887727</v>
+      </c>
+      <c r="Z5">
+        <f>(2*PI()*(1-EXP(-2*PI()*W5))-2*PI()^2*W5*EXP(-2*PI()*W5))/(1-EXP(-2*PI()*W5))^2*X5</f>
+        <v>154.24237356516628</v>
+      </c>
+      <c r="AA5">
+        <f>S5/SQRT(Y5)</f>
+        <v>61.508597070775743</v>
+      </c>
+      <c r="AB5">
+        <f>AA5/SQRT(M5)</f>
+        <v>69.644771865692874</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>40</v>
       </c>
@@ -2895,8 +3761,68 @@
         <f t="shared" ref="M6:M25" si="1">E6-G6</f>
         <v>8.7800000000000011</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f t="shared" ref="N6:N25" si="2">SQRT(F6^2+H6^2)</f>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O25" si="3">M6*0.013</f>
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P25" si="4">N6*0.013</f>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q25" si="5">SQRT(O6^2+1)</f>
+        <v>1.0064928909833393</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R25" si="6">O6/Q6*P6</f>
+        <v>1.9221840510839629E-4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S25" si="7">SQRT(I6/O6/P6)</f>
+        <v>482.28462415397149</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T25" si="8">S6*SQRT((0.5*J6/I6)^2+(0.5*P6/O6)^2+(0.5*R6/Q6)^2)</f>
+        <v>36.125327470651811</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U25" si="9">O6/Q6</f>
+        <v>0.11340368225401544</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V25" si="10">U6*SQRT((P6/O6)^2+(R6/Q6)^2)</f>
+        <v>1.6841974761650832E-3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W25" si="11">1/137*204/U6</f>
+        <v>13.130535669513376</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X25" si="12">W6*V6/U6</f>
+        <v>0.19500614614748979</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y25" si="13">2*PI()*W6/(1-EXP(-2*PI()*W6))</f>
+        <v>82.501588794083915</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z25" si="14">(2*PI()*(1-EXP(-2*PI()*W6))-2*PI()^2*W6*EXP(-2*PI()*W6))/(1-EXP(-2*PI()*W6))^2*X6</f>
+        <v>1.2252597522836228</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA25" si="15">S6/SQRT(Y6)</f>
+        <v>53.097278292956453</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB25" si="16">AA6/SQRT(M6)</f>
+        <v>17.919463470881158</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>26</v>
       </c>
@@ -2930,8 +3856,68 @@
         <f t="shared" si="1"/>
         <v>16.78</v>
       </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.21814</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>1.0235160280132403</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>3.6125051408540665E-4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>367.73370828753707</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>26.041999699155806</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>0.21312807423586153</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>1.6577565158327448E-3</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>6.9866492259608615</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="12"/>
+        <v>5.4343677245245685E-2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="13"/>
+        <v>43.898411762974916</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="14"/>
+        <v>0.34145139440543731</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="15"/>
+        <v>55.502051664289013</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="16"/>
+        <v>13.549181457680277</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>32.1</v>
       </c>
@@ -2965,8 +3951,68 @@
         <f t="shared" si="1"/>
         <v>22.880000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.29744000000000004</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>1.0432979217845688</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>4.8323551303786565E-4</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>295.42193983540528</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>22.284275035257423</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>0.28509593835979918</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>1.6300064087050102E-3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="11"/>
+        <v>5.222982493041644</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="12"/>
+        <v>2.9861859783732445E-2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="13"/>
+        <v>32.816966859935647</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="14"/>
+        <v>0.18762759863818851</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="15"/>
+        <v>51.569571914675187</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="16"/>
+        <v>10.781160618283298</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>40.1</v>
       </c>
@@ -3000,8 +4046,68 @@
         <f t="shared" si="1"/>
         <v>30.880000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.40144000000000002</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>1.0775685934547277</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>6.3145663640778039E-4</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>230.01545720446902</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>19.17422317817697</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>0.3725424093077615</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="10"/>
+        <v>1.5880560208062925E-3</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="11"/>
+        <v>3.9969975436015095</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="12"/>
+        <v>1.7038210565231603E-2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="13"/>
+        <v>25.113876239101145</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="14"/>
+        <v>0.10705423426876215</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="15"/>
+        <v>45.898674842076872</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="16"/>
+        <v>8.259647272454945</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>48.1</v>
       </c>
@@ -3035,8 +4141,68 @@
         <f t="shared" si="1"/>
         <v>38.880000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.50544</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>1.1204773953989433</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>7.646000500110342E-4</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>234.22336616305955</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>17.087195502714753</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>0.45109343756108466</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>1.5437423061231042E-3</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>3.3009815060518841</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="12"/>
+        <v>1.1296694605388043E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="13"/>
+        <v>20.740678518479395</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="14"/>
+        <v>7.0979224910650535E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="15"/>
+        <v>51.430262173575315</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="16"/>
+        <v>8.2481321417796494</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>56.2</v>
       </c>
@@ -3070,8 +4236,68 @@
         <f t="shared" si="1"/>
         <v>46.980000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.61074000000000006</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>1.1717522552143862</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>8.8346302846970134E-4</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>228.39405280111521</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>15.543716869161278</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>0.52121939367486669</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>1.4989757429523885E-3</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="11"/>
+        <v>2.8568604947562091</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="12"/>
+        <v>8.2160499678372058E-3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="13"/>
+        <v>17.950184172658652</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="14"/>
+        <v>5.1622957850551834E-2</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="15"/>
+        <v>53.907642128265323</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="16"/>
+        <v>7.864911324156691</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>64.3</v>
       </c>
@@ -3105,8 +4331,68 @@
         <f t="shared" si="1"/>
         <v>55.08</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.7160399999999999</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>1.2299240958693345</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>9.8679465142089751E-4</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>263.07955258294965</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>14.355931519223729</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>0.5821822683243626</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>1.455134460416777E-3</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>2.5577060242255381</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="12"/>
+        <v>6.3928538843655847E-3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="13"/>
+        <v>16.070542596822211</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="14"/>
+        <v>4.0167455961961751E-2</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="15"/>
+        <v>65.625378982276217</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="16"/>
+        <v>8.8424957276181075</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>72.400000000000006</v>
       </c>
@@ -3140,8 +4426,68 @@
         <f t="shared" si="1"/>
         <v>63.180000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.82134000000000007</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>1.2940631343176421</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>1.0758093681737316E-3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>309.08677776927851</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>13.405021701892121</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>0.63469855389481566</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>1.4121085476892219E-3</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="11"/>
+        <v>2.3460760793497593</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="12"/>
+        <v>5.2196654062773226E-3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="13"/>
+        <v>14.740836594629453</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="14"/>
+        <v>3.2796042170264196E-2</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="15"/>
+        <v>80.504352454536956</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="16"/>
+        <v>10.12813660366159</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>80</v>
       </c>
@@ -3175,8 +4521,68 @@
         <f t="shared" si="1"/>
         <v>70.78</v>
       </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0.92013999999999996</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>1.358917811937131</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>1.1477003985022325E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>358.09984747201133</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>12.665939769107817</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>0.67711232564414225</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>1.3721578641798366E-3</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="11"/>
+        <v>2.1991197597443897</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="12"/>
+        <v>4.456482858639337E-3</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="13"/>
+        <v>13.817490753500914</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="14"/>
+        <v>2.800074249372465E-2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="15"/>
+        <v>96.336207370842274</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="16"/>
+        <v>11.450758769005461</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>88.1</v>
       </c>
@@ -3210,8 +4616,68 @@
         <f t="shared" si="1"/>
         <v>78.88</v>
       </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>1.0254399999999999</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>1.4323153261764674</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>1.2134990151795129E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>356.58010064726568</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>11.997657840400036</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>0.71593173741803651</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="10"/>
+        <v>1.3297867742525383E-3</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="11"/>
+        <v>2.0798785932590187</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="12"/>
+        <v>3.8632105559972606E-3</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="13"/>
+        <v>13.068290207420363</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="14"/>
+        <v>2.4272984204546728E-2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="15"/>
+        <v>98.638785898887491</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="16"/>
+        <v>11.106168728168219</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>96.3</v>
       </c>
@@ -3245,8 +4711,68 @@
         <f t="shared" si="1"/>
         <v>87.08</v>
       </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>1.1320399999999999</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>1.5104683252554487</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>1.2703341205647313E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>336.29086792873704</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>11.418107718892136</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="9"/>
+        <v>0.74946291893181582</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="10"/>
+        <v>1.2870688072090391E-3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="11"/>
+        <v>1.9868242407680492</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="12"/>
+        <v>3.4120160465630502E-3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="13"/>
+        <v>12.483632169678824</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="14"/>
+        <v>2.143790337331436E-2</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="15"/>
+        <v>95.17975712273082</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="16"/>
+        <v>10.199652649488197</v>
+      </c>
+    </row>
+    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>104</v>
       </c>
@@ -3280,8 +4806,68 @@
         <f t="shared" si="1"/>
         <v>94.78</v>
       </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>1.23214</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>1.5868739646235299</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>1.316089531973345E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>352.83587747665086</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="8"/>
+        <v>10.944645446262399</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>0.77645737939390358</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="10"/>
+        <v>1.2472353945103172E-3</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="11"/>
+        <v>1.917749942762927</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="12"/>
+        <v>3.0805111393250512E-3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="13"/>
+        <v>12.049648717761187</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="14"/>
+        <v>1.9354853658673052E-2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="15"/>
+        <v>101.64488903296728</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="16"/>
+        <v>10.440641746024788</v>
+      </c>
+    </row>
+    <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>112</v>
       </c>
@@ -3315,8 +4901,68 @@
         <f t="shared" si="1"/>
         <v>102.78</v>
       </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>1.3361399999999999</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>1.6689128496119863</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>1.357019599295008E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>298.65225302180619</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="8"/>
+        <v>10.508958622728596</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>0.80060501679919693</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>1.2063493946944646E-3</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="11"/>
+        <v>1.8599072746804759</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="12"/>
+        <v>2.8025030669541441E-3</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="13"/>
+        <v>11.686240337063516</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="14"/>
+        <v>1.7607928914139759E-2</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="15"/>
+        <v>87.363170884351447</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="16"/>
+        <v>8.6173569325914308</v>
+      </c>
+    </row>
+    <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>120</v>
       </c>
@@ -3350,8 +4996,68 @@
         <f t="shared" si="1"/>
         <v>110.78</v>
       </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>1.44014</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>1.7532835536786398</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>1.3922600678902193E-3</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>284.80416231379218</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="8"/>
+        <v>10.12209465926469</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="9"/>
+        <v>0.82139594418619866</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>1.1662139779764589E-3</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="11"/>
+        <v>1.8128298604709989</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="12"/>
+        <v>2.5738470440939327E-3</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="13"/>
+        <v>11.390474702679896</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="14"/>
+        <v>1.6171099587766816E-2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="15"/>
+        <v>84.386975200928831</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="16"/>
+        <v>8.0176065415891848</v>
+      </c>
+    </row>
+    <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>128</v>
       </c>
@@ -3385,8 +5091,68 @@
         <f t="shared" si="1"/>
         <v>118.78</v>
       </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>1.5441399999999998</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>1.8396652792288057</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>1.4227076751751773E-3</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>244.13781650493826</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="8"/>
+        <v>9.7747088269877604</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="9"/>
+        <v>0.83935921247984246</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="10"/>
+        <v>1.1270577308499091E-3</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>1.774033182397782</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="12"/>
+        <v>2.3821002775420239E-3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="13"/>
+        <v>11.146740012753742</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="14"/>
+        <v>1.4966190083317109E-2</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="15"/>
+        <v>73.124198716861244</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="16"/>
+        <v>6.7094892240223745</v>
+      </c>
+    </row>
+    <row r="21" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>135.9</v>
       </c>
@@ -3420,8 +5186,68 @@
         <f t="shared" si="1"/>
         <v>126.68</v>
       </c>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>1.6468400000000001</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>1.9266764091564521</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>1.4488066817395495E-3</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>220.72922791689484</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="8"/>
+        <v>9.464733120033479</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="9"/>
+        <v>0.85475692346335863</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="10"/>
+        <v>1.0895370354136265E-3</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="11"/>
+        <v>1.7420755000814485</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="12"/>
+        <v>2.2205795866909023E-3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="13"/>
+        <v>10.945976187865643</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="14"/>
+        <v>1.3951212612776567E-2</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="15"/>
+        <v>66.716398590574485</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="16"/>
+        <v>5.9275956044817715</v>
+      </c>
+    </row>
+    <row r="22" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>143.9</v>
       </c>
@@ -3455,8 +5281,68 @@
         <f t="shared" si="1"/>
         <v>134.68</v>
       </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>1.75084</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>2.0162938043846688</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>1.4718395115429017E-3</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>192.52591942006811</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="8"/>
+        <v>9.1790551597182652</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="9"/>
+        <v>0.86834567273509045</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="10"/>
+        <v>1.0528427908513961E-3</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="11"/>
+        <v>1.714813744853867</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="12"/>
+        <v>2.0791596545136105E-3</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="13"/>
+        <v>10.774718003742557</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="14"/>
+        <v>1.3062545955859138E-2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="15"/>
+        <v>58.652462398738784</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="16"/>
+        <v>5.0539936963465459</v>
+      </c>
+    </row>
+    <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>151.9</v>
       </c>
@@ -3490,8 +5376,68 @@
         <f t="shared" si="1"/>
         <v>142.68</v>
       </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>1.85484</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>2.1072331208482842</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>1.4919754677847749E-3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>161.49898351834696</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="8"/>
+        <v>8.9177781801739506</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="9"/>
+        <v>0.8802253446231515</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="10"/>
+        <v>1.0175535406256968E-3</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="11"/>
+        <v>1.6916703250893261</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="12"/>
+        <v>1.9555959611717733E-3</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="13"/>
+        <v>10.629335381635325</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="14"/>
+        <v>1.2286088691169232E-2</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="15"/>
+        <v>49.535521331935129</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="16"/>
+        <v>4.1470110035678953</v>
+      </c>
+    </row>
+    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>160.30000000000001</v>
       </c>
@@ -3525,8 +5471,68 @@
         <f t="shared" si="1"/>
         <v>151.08000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>1.96404</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>2.2039630490550426</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>1.5104760115307013E-3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>133.12724208605087</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="8"/>
+        <v>8.6661558042318809</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>0.89114016718297051</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="10"/>
+        <v>9.8207135917763029E-4</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="11"/>
+        <v>1.6709504853738415</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="12"/>
+        <v>1.841452865352301E-3</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="13"/>
+        <v>10.499180969535601</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="14"/>
+        <v>1.15688341206999E-2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="15"/>
+        <v>41.085561277925265</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="16"/>
+        <v>3.3426102165994247</v>
+      </c>
+    </row>
+    <row r="25" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>169.3</v>
       </c>
@@ -3559,6 +5565,66 @@
       <c r="M25">
         <f t="shared" si="1"/>
         <v>160.08000000000001</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.13038404810405335</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>2.0810400000000002</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>1.6949926253526934E-3</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>2.3088368243771584</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>1.5277595262781388E-3</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>117.86203071699451</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="8"/>
+        <v>8.4189436183524862</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>0.90133697541028712</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="10"/>
+        <v>9.4586591049339948E-4</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="11"/>
+        <v>1.6520470540029686</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="12"/>
+        <v>1.7336634727551884E-3</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="13"/>
+        <v>10.380440022745242</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="14"/>
+        <v>1.0891511868568493E-2</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="15"/>
+        <v>36.581881434113001</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="16"/>
+        <v>2.8913289187523574</v>
       </c>
     </row>
   </sheetData>

--- a/523/data/friedrich.xlsx
+++ b/523/data/friedrich.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>n</t>
   </si>
@@ -131,6 +131,18 @@
   <si>
     <t>y2</t>
   </si>
+  <si>
+    <t>Nreal</t>
+  </si>
+  <si>
+    <t>dNreal</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>dy2</t>
+  </si>
 </sst>
 </file>
 
@@ -473,11 +485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291601792"/>
-        <c:axId val="291624064"/>
+        <c:axId val="196307584"/>
+        <c:axId val="198824320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291601792"/>
+        <c:axId val="196307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,12 +499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291624064"/>
+        <c:crossAx val="198824320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291624064"/>
+        <c:axId val="198824320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291601792"/>
+        <c:crossAx val="196307584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -700,11 +712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291538048"/>
-        <c:axId val="291539584"/>
+        <c:axId val="199438720"/>
+        <c:axId val="199479296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291538048"/>
+        <c:axId val="199438720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,12 +726,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291539584"/>
+        <c:crossAx val="199479296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291539584"/>
+        <c:axId val="199479296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291538048"/>
+        <c:crossAx val="199438720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -962,11 +974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292389248"/>
-        <c:axId val="292390784"/>
+        <c:axId val="200542080"/>
+        <c:axId val="200543616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292389248"/>
+        <c:axId val="200542080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292390784"/>
+        <c:crossAx val="200543616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292390784"/>
+        <c:axId val="200543616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292389248"/>
+        <c:crossAx val="200542080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1210,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292415744"/>
-        <c:axId val="292298752"/>
+        <c:axId val="200655616"/>
+        <c:axId val="200657536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292415744"/>
+        <c:axId val="200655616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,12 +1236,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292298752"/>
+        <c:crossAx val="200657536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292298752"/>
+        <c:axId val="200657536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292415744"/>
+        <c:crossAx val="200655616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1287,7 +1299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ti!$AA$4</c:f>
+              <c:f>ti!$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1303,144 +1315,144 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>ti!$Q$5:$Q$25</c:f>
+              <c:f>ti!$S$5:$S$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0000514084785841</c:v>
+                  <c:v>1.0007450884715847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0064928909833393</c:v>
+                  <c:v>1.0101176229033924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0235160280132403</c:v>
+                  <c:v>1.0299594613867091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0432979217845688</c:v>
+                  <c:v>1.0517686666277903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0775685934547277</c:v>
+                  <c:v>1.0884955710061479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1204773953989433</c:v>
+                  <c:v>1.1336048200762028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1717522552143862</c:v>
+                  <c:v>1.1868401004768923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2299240958693345</c:v>
+                  <c:v>1.2467137362281686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2940631343176421</c:v>
+                  <c:v>1.312317429625927</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.358917811937131</c:v>
+                  <c:v>1.3783544290566196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4323153261764674</c:v>
+                  <c:v>1.4528338817979154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5104683252554487</c:v>
+                  <c:v>1.5319214927991578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5868739646235299</c:v>
+                  <c:v>1.6090797283229941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6689128496119863</c:v>
+                  <c:v>1.6917920829995627</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7532835536786398</c:v>
+                  <c:v>1.7767428998310364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8396652792288057</c:v>
+                  <c:v>1.8636260923532917</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9266764091564521</c:v>
+                  <c:v>1.9510672966609841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0162938043846688</c:v>
+                  <c:v>2.0410644468267041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1072331208482842</c:v>
+                  <c:v>2.1323359388473477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2039630490550426</c:v>
+                  <c:v>2.229371234249693</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3088368243771584</c:v>
+                  <c:v>2.3345304538814653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ti!$AA$5:$AA$25</c:f>
+              <c:f>ti!$AC$5:$AC$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>61.508597070775743</c:v>
+                  <c:v>35.295333990659216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.097278292956453</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.502051664289013</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.569571914675187</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.898674842076872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.430262173575315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.907642128265323</c:v>
+                  <c:v>16.779761018379801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.625378982276217</c:v>
+                  <c:v>62.606086765516437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.504352454536956</c:v>
+                  <c:v>96.844995411244867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.336207370842274</c:v>
+                  <c:v>127.58342353718395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98.638785898887491</c:v>
+                  <c:v>132.69175922245068</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95.17975712273082</c:v>
+                  <c:v>127.59606926188847</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.64488903296728</c:v>
+                  <c:v>139.67857486308742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.363170884351447</c:v>
+                  <c:v>115.63070890801508</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.386975200928831</c:v>
+                  <c:v>111.25669554495602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.124198716861244</c:v>
+                  <c:v>91.662721362323168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.716398590574485</c:v>
+                  <c:v>80.492299884038772</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.652462398738784</c:v>
+                  <c:v>65.400362563243334</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.535521331935129</c:v>
+                  <c:v>46.073700536150952</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41.085561277925265</c:v>
+                  <c:v>21.993377431484312</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.581881434113001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,7 +1464,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ti!$AB$4</c:f>
+              <c:f>ti!$AE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1468,144 +1480,144 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>ti!$Q$5:$Q$25</c:f>
+              <c:f>ti!$S$5:$S$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0000514084785841</c:v>
+                  <c:v>1.0007450884715847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0064928909833393</c:v>
+                  <c:v>1.0101176229033924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0235160280132403</c:v>
+                  <c:v>1.0299594613867091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0432979217845688</c:v>
+                  <c:v>1.0517686666277903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0775685934547277</c:v>
+                  <c:v>1.0884955710061479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1204773953989433</c:v>
+                  <c:v>1.1336048200762028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1717522552143862</c:v>
+                  <c:v>1.1868401004768923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2299240958693345</c:v>
+                  <c:v>1.2467137362281686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2940631343176421</c:v>
+                  <c:v>1.312317429625927</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.358917811937131</c:v>
+                  <c:v>1.3783544290566196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4323153261764674</c:v>
+                  <c:v>1.4528338817979154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5104683252554487</c:v>
+                  <c:v>1.5319214927991578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5868739646235299</c:v>
+                  <c:v>1.6090797283229941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6689128496119863</c:v>
+                  <c:v>1.6917920829995627</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7532835536786398</c:v>
+                  <c:v>1.7767428998310364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8396652792288057</c:v>
+                  <c:v>1.8636260923532917</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9266764091564521</c:v>
+                  <c:v>1.9510672966609841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0162938043846688</c:v>
+                  <c:v>2.0410644468267041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1072331208482842</c:v>
+                  <c:v>2.1323359388473477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2039630490550426</c:v>
+                  <c:v>2.229371234249693</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3088368243771584</c:v>
+                  <c:v>2.3345304538814653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ti!$AB$5:$AB$25</c:f>
+              <c:f>ti!$AE$5:$AE$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>69.644771865692874</c:v>
+                  <c:v>20.480430024224741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.919463470881158</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.549181457680277</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.781160618283298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.259647272454945</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2481321417796494</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.864911324156691</c:v>
+                  <c:v>2.392961255844634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8424957276181075</c:v>
+                  <c:v>8.2728084214146556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.12813660366159</c:v>
+                  <c:v>11.978100163534858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.450758769005461</c:v>
+                  <c:v>14.93557952406691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.106168728168219</c:v>
+                  <c:v>14.737162268061308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.199652649488197</c:v>
+                  <c:v>13.504687166218568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.440641746024788</c:v>
+                  <c:v>14.184404168042567</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6173569325914308</c:v>
+                  <c:v>11.286014128754795</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0176065415891848</c:v>
+                  <c:v>10.46753911323197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7094892240223745</c:v>
+                  <c:v>8.3340078748198252</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9275956044817715</c:v>
+                  <c:v>7.0905254844768439</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0539936963465459</c:v>
+                  <c:v>5.5901829634128317</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1470110035678953</c:v>
+                  <c:v>3.8279289225859405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3426102165994247</c:v>
+                  <c:v>1.7764923783249893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8913289187523574</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,11 +1632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78226560"/>
-        <c:axId val="293121408"/>
+        <c:axId val="202532736"/>
+        <c:axId val="203038720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78226560"/>
+        <c:axId val="202532736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,12 +1646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293121408"/>
+        <c:crossAx val="203038720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293121408"/>
+        <c:axId val="203038720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78226560"/>
+        <c:crossAx val="202532736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1701,7 +1713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ti!$AB$4</c:f>
+              <c:f>ti!$AE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1717,138 +1729,138 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>ti!$Q$6:$Q$25</c:f>
+              <c:f>ti!$S$6:$S$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0064928909833393</c:v>
+                  <c:v>1.0101176229033924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0235160280132403</c:v>
+                  <c:v>1.0299594613867091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0432979217845688</c:v>
+                  <c:v>1.0517686666277903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0775685934547277</c:v>
+                  <c:v>1.0884955710061479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1204773953989433</c:v>
+                  <c:v>1.1336048200762028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1717522552143862</c:v>
+                  <c:v>1.1868401004768923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2299240958693345</c:v>
+                  <c:v>1.2467137362281686</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2940631343176421</c:v>
+                  <c:v>1.312317429625927</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.358917811937131</c:v>
+                  <c:v>1.3783544290566196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4323153261764674</c:v>
+                  <c:v>1.4528338817979154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5104683252554487</c:v>
+                  <c:v>1.5319214927991578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5868739646235299</c:v>
+                  <c:v>1.6090797283229941</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6689128496119863</c:v>
+                  <c:v>1.6917920829995627</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7532835536786398</c:v>
+                  <c:v>1.7767428998310364</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8396652792288057</c:v>
+                  <c:v>1.8636260923532917</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9266764091564521</c:v>
+                  <c:v>1.9510672966609841</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0162938043846688</c:v>
+                  <c:v>2.0410644468267041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1072331208482842</c:v>
+                  <c:v>2.1323359388473477</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2039630490550426</c:v>
+                  <c:v>2.229371234249693</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3088368243771584</c:v>
+                  <c:v>2.3345304538814653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ti!$AB$6:$AB$25</c:f>
+              <c:f>ti!$AE$6:$AE$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17.919463470881158</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.549181457680277</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.781160618283298</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.259647272454945</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2481321417796494</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.864911324156691</c:v>
+                  <c:v>2.392961255844634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8424957276181075</c:v>
+                  <c:v>8.2728084214146556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.12813660366159</c:v>
+                  <c:v>11.978100163534858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.450758769005461</c:v>
+                  <c:v>14.93557952406691</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.106168728168219</c:v>
+                  <c:v>14.737162268061308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.199652649488197</c:v>
+                  <c:v>13.504687166218568</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.440641746024788</c:v>
+                  <c:v>14.184404168042567</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6173569325914308</c:v>
+                  <c:v>11.286014128754795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0176065415891848</c:v>
+                  <c:v>10.46753911323197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7094892240223745</c:v>
+                  <c:v>8.3340078748198252</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9275956044817715</c:v>
+                  <c:v>7.0905254844768439</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0539936963465459</c:v>
+                  <c:v>5.5901829634128317</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1470110035678953</c:v>
+                  <c:v>3.8279289225859405</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3426102165994247</c:v>
+                  <c:v>1.7764923783249893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8913289187523574</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,11 +1875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78677120"/>
-        <c:axId val="78851072"/>
+        <c:axId val="302668416"/>
+        <c:axId val="303202688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78677120"/>
+        <c:axId val="302668416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,12 +1889,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78851072"/>
+        <c:crossAx val="303202688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78851072"/>
+        <c:axId val="303202688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78677120"/>
+        <c:crossAx val="302668416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2111,11 +2123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292495744"/>
-        <c:axId val="292497280"/>
+        <c:axId val="206378496"/>
+        <c:axId val="206380032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292495744"/>
+        <c:axId val="206378496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,12 +2137,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292497280"/>
+        <c:crossAx val="206380032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292497280"/>
+        <c:axId val="206380032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292495744"/>
+        <c:crossAx val="206378496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2272,7 +2284,7 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -2296,13 +2308,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>623887</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>585787</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -2326,13 +2338,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>638735</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>544606</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>42582</xdr:rowOff>
@@ -3534,19 +3546,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AB25"/>
+  <dimension ref="C4:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -3578,55 +3590,70 @@
         <v>13</v>
       </c>
       <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>25</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>27</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>28</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>29</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>31</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>40</v>
       </c>
@@ -3637,12 +3664,10 @@
         <v>0.1</v>
       </c>
       <c r="G5">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H5">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I5">
         <v>60</v>
@@ -3660,71 +3685,90 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M5">
+        <f>MAX(0,I5-K5)</f>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="N5">
+        <f>SQRT(J5^2+L5^2)</f>
+        <v>8.3880867902043086</v>
+      </c>
+      <c r="O5">
         <f>E5-G5</f>
-        <v>0.78000000000000114</v>
-      </c>
-      <c r="N5">
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="P5">
         <f>SQRT(F5^2+H5^2)</f>
-        <v>0.13038404810405335</v>
-      </c>
-      <c r="O5">
-        <f>M5*0.013</f>
-        <v>1.0140000000000014E-2</v>
-      </c>
-      <c r="P5">
-        <f>N5*0.013</f>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q5">
-        <f>SQRT(O5^2+1)</f>
-        <v>1.0000514084785841</v>
+        <f>O5*0.013</f>
+        <v>3.8609999999999992E-2</v>
       </c>
       <c r="R5">
-        <f>O5/Q5*P5</f>
-        <v>1.7186341697397246E-5</v>
+        <f>P5*0.013</f>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S5">
-        <f>SQRT(I5/O5/P5)</f>
-        <v>1868.4124013302171</v>
+        <f>SQRT(Q5^2+1)</f>
+        <v>1.0007450884715847</v>
       </c>
       <c r="T5">
-        <f>S5*SQRT((0.5*J5/I5)^2+(0.5*P5/O5)^2+(0.5*R5/Q5)^2)</f>
-        <v>197.31180338063825</v>
+        <f>Q5/S5*R5</f>
+        <v>6.7477498473273256E-5</v>
       </c>
       <c r="U5">
-        <f>O5/Q5</f>
-        <v>1.0139478744824107E-2</v>
+        <f>SQRT(M5/Q5/R5)</f>
+        <v>348.47024885804251</v>
       </c>
       <c r="V5">
-        <f>U5*SQRT((P5/O5)^2+(R5/Q5)^2)</f>
-        <v>1.6949055017972813E-3</v>
+        <f>IF(U5=0,0,U5*SQRT((0.5*N5/M5)^2+(0.5*R5/Q5)^2+(0.5*T5/S5)^2))</f>
+        <v>178.40629438366071</v>
       </c>
       <c r="W5">
-        <f>1/137*204/U5</f>
-        <v>146.85676969840543</v>
+        <f>Q5/S5</f>
+        <v>3.8581253552758543E-2</v>
       </c>
       <c r="X5">
-        <f>W5*V5/U5</f>
-        <v>24.548436187122903</v>
+        <f>W5*SQRT((R5/Q5)^2+(T5/S5)^2)</f>
+        <v>1.7476708942556617E-3</v>
       </c>
       <c r="Y5">
-        <f>2*PI()*W5/(1-EXP(-2*PI()*W5))</f>
-        <v>922.72829762887727</v>
+        <f>1/137*82/W5</f>
+        <v>15.513755797667855</v>
       </c>
       <c r="Z5">
-        <f>(2*PI()*(1-EXP(-2*PI()*W5))-2*PI()^2*W5*EXP(-2*PI()*W5))/(1-EXP(-2*PI()*W5))^2*X5</f>
-        <v>154.24237356516628</v>
+        <f>Y5*X5/W5</f>
+        <v>0.70274905482524364</v>
       </c>
       <c r="AA5">
-        <f>S5/SQRT(Y5)</f>
-        <v>61.508597070775743</v>
+        <f>2*PI()*Y5/(1-EXP(-2*PI()*Y5))</f>
+        <v>97.475802487078795</v>
       </c>
       <c r="AB5">
-        <f>AA5/SQRT(M5)</f>
-        <v>69.644771865692874</v>
-      </c>
-    </row>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
+        <f>(2*PI()*(1-EXP(-2*PI()*Y5))-2*PI()^2*Y5*EXP(-2*PI()*Y5))/(1-EXP(-2*PI()*Y5))^2*Z5</f>
+        <v>4.4155025359123119</v>
+      </c>
+      <c r="AC5">
+        <f>U5/SQRT(AA5)</f>
+        <v>35.295333990659216</v>
+      </c>
+      <c r="AD5">
+        <f>IF(AC5=0,0,AC5*SQRT((V5/U5)^2+(0.5*AB5/AA5)^2))</f>
+        <v>18.087824319770391</v>
+      </c>
+      <c r="AE5">
+        <f>AC5/SQRT(O5)</f>
+        <v>20.480430024224741</v>
+      </c>
+      <c r="AF5">
+        <f>IF(AE5=0,0,AE5*SQRT((AD5/AC5)^2+(0.5*P5/O5)^2))</f>
+        <v>10.505865711663422</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6">
         <v>40</v>
       </c>
@@ -3735,12 +3779,10 @@
         <v>0.1</v>
       </c>
       <c r="G6">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H6">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I6">
         <v>45</v>
@@ -3758,71 +3800,93 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M25" si="1">E6-G6</f>
-        <v>8.7800000000000011</v>
+        <f t="shared" ref="M6:M25" si="1">MAX(0,I6-K6)</f>
+        <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N25" si="2">SQRT(F6^2+H6^2)</f>
-        <v>0.13038404810405335</v>
+        <f t="shared" ref="N6:N25" si="2">SQRT(J6^2+L6^2)</f>
+        <v>7.4404300950953104</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O25" si="3">M6*0.013</f>
-        <v>0.11414000000000001</v>
+        <f t="shared" ref="O6:O25" si="3">E6-G6</f>
+        <v>10.969999999999999</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P25" si="4">N6*0.013</f>
-        <v>1.6949926253526934E-3</v>
+        <f t="shared" ref="P6:P25" si="4">SQRT(F6^2+H6^2)</f>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q25" si="5">SQRT(O6^2+1)</f>
-        <v>1.0064928909833393</v>
+        <f t="shared" ref="Q6:Q25" si="5">O6*0.013</f>
+        <v>0.14260999999999999</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R25" si="6">O6/Q6*P6</f>
-        <v>1.9221840510839629E-4</v>
+        <f t="shared" ref="R6:R25" si="6">P6*0.013</f>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S25" si="7">SQRT(I6/O6/P6)</f>
-        <v>482.28462415397149</v>
+        <f t="shared" ref="S6:S25" si="7">SQRT(Q6^2+1)</f>
+        <v>1.0101176229033924</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:T25" si="8">S6*SQRT((0.5*J6/I6)^2+(0.5*P6/O6)^2+(0.5*R6/Q6)^2)</f>
-        <v>36.125327470651811</v>
+        <f t="shared" ref="T6:T25" si="8">Q6/S6*R6</f>
+        <v>2.4692250351894735E-4</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U25" si="9">O6/Q6</f>
-        <v>0.11340368225401544</v>
+        <f t="shared" ref="U6:U25" si="9">SQRT(M6/Q6/R6)</f>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V25" si="10">U6*SQRT((P6/O6)^2+(R6/Q6)^2)</f>
-        <v>1.6841974761650832E-3</v>
+        <f t="shared" ref="V6:V25" si="10">IF(U6=0,0,U6*SQRT((0.5*N6/M6)^2+(0.5*R6/Q6)^2+(0.5*T6/S6)^2))</f>
+        <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W25" si="11">1/137*204/U6</f>
-        <v>13.130535669513376</v>
+        <f t="shared" ref="W6:W25" si="11">Q6/S6</f>
+        <v>0.14118157803256068</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X25" si="12">W6*V6/U6</f>
-        <v>0.19500614614748979</v>
+        <f t="shared" ref="X6:X25" si="12">W6*SQRT((R6/Q6)^2+(T6/S6)^2)</f>
+        <v>1.7317968520880712E-3</v>
       </c>
       <c r="Y6">
-        <f t="shared" ref="Y6:Y25" si="13">2*PI()*W6/(1-EXP(-2*PI()*W6))</f>
-        <v>82.501588794083915</v>
+        <f t="shared" ref="Y6:Y24" si="13">1/137*82/W6</f>
+        <v>4.2395059916907867</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z25" si="14">(2*PI()*(1-EXP(-2*PI()*W6))-2*PI()^2*W6*EXP(-2*PI()*W6))/(1-EXP(-2*PI()*W6))^2*X6</f>
-        <v>1.2252597522836228</v>
+        <f t="shared" ref="Z6:Z25" si="14">Y6*X6/W6</f>
+        <v>5.2003690801113903E-2</v>
       </c>
       <c r="AA6">
-        <f t="shared" ref="AA6:AA25" si="15">S6/SQRT(Y6)</f>
-        <v>53.097278292956453</v>
+        <f t="shared" ref="AA6:AA25" si="15">2*PI()*Y6/(1-EXP(-2*PI()*Y6))</f>
+        <v>26.637601756763306</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB25" si="16">AA6/SQRT(M6)</f>
-        <v>17.919463470881158</v>
-      </c>
-    </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AB6:AB25" si="16">(2*PI()*(1-EXP(-2*PI()*Y6))-2*PI()^2*Y6*EXP(-2*PI()*Y6))/(1-EXP(-2*PI()*Y6))^2*Z6</f>
+        <v>0.32674882594979932</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC25" si="17">U6/SQRT(AA6)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD25" si="18">IF(AC6=0,0,AC6*SQRT((V6/U6)^2+(0.5*AB6/AA6)^2))</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE25" si="19">AC6/SQRT(O6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AF25" si="20">IF(AE6=0,0,AE6*SQRT((AD6/AC6)^2+(0.5*P6/O6)^2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
       <c r="E7">
         <v>26</v>
       </c>
@@ -3830,12 +3894,10 @@
         <v>0.1</v>
       </c>
       <c r="G7">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H7">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -3854,70 +3916,92 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>16.78</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>7.7691698398220135</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>0.21814</v>
+        <v>18.97</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>1.0235160280132403</v>
+        <v>0.24660999999999997</v>
       </c>
       <c r="R7">
         <f t="shared" si="6"/>
-        <v>3.6125051408540665E-4</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S7">
         <f t="shared" si="7"/>
-        <v>367.73370828753707</v>
+        <v>1.0299594613867091</v>
       </c>
       <c r="T7">
         <f t="shared" si="8"/>
-        <v>26.041999699155806</v>
+        <v>4.1876771424735604E-4</v>
       </c>
       <c r="U7">
         <f t="shared" si="9"/>
-        <v>0.21312807423586153</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <f t="shared" si="10"/>
-        <v>1.6577565158327448E-3</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f t="shared" si="11"/>
-        <v>6.9866492259608615</v>
+        <v>0.23943660818258908</v>
       </c>
       <c r="X7">
         <f t="shared" si="12"/>
-        <v>5.4343677245245685E-2</v>
+        <v>1.7008853453829649E-3</v>
       </c>
       <c r="Y7">
         <f t="shared" si="13"/>
-        <v>43.898411762974916</v>
+        <v>2.4997854360222473</v>
       </c>
       <c r="Z7">
         <f t="shared" si="14"/>
-        <v>0.34145139440543731</v>
+        <v>1.775772070530518E-2</v>
       </c>
       <c r="AA7">
         <f t="shared" si="15"/>
-        <v>55.502051664289013</v>
+        <v>15.706617492924121</v>
       </c>
       <c r="AB7">
         <f t="shared" si="16"/>
-        <v>13.549181457680277</v>
-      </c>
-    </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
+        <v>0.1115749344337746</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
       <c r="E8">
         <v>32.1</v>
       </c>
@@ -3925,12 +4009,10 @@
         <v>0.1</v>
       </c>
       <c r="G8">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H8">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I8">
         <v>44</v>
@@ -3949,70 +4031,92 @@
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>22.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>7.3729234364667047</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>0.29744000000000004</v>
+        <v>25.07</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
-        <v>1.0432979217845688</v>
+        <v>0.32590999999999998</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>4.8323551303786565E-4</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S8">
         <f t="shared" si="7"/>
-        <v>295.42193983540528</v>
+        <v>1.0517686666277903</v>
       </c>
       <c r="T8">
         <f t="shared" si="8"/>
-        <v>22.284275035257423</v>
+        <v>5.4195109418994755E-4</v>
       </c>
       <c r="U8">
         <f t="shared" si="9"/>
-        <v>0.28509593835979918</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <f t="shared" si="10"/>
-        <v>1.6300064087050102E-3</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <f t="shared" si="11"/>
-        <v>5.222982493041644</v>
+        <v>0.30986851989510356</v>
       </c>
       <c r="X8">
         <f t="shared" si="12"/>
-        <v>2.9861859783732445E-2</v>
+        <v>1.6705336920078511E-3</v>
       </c>
       <c r="Y8">
         <f t="shared" si="13"/>
-        <v>32.816966859935647</v>
+        <v>1.9315939101784807</v>
       </c>
       <c r="Z8">
         <f t="shared" si="14"/>
-        <v>0.18762759863818851</v>
+        <v>1.0413425369323319E-2</v>
       </c>
       <c r="AA8">
         <f t="shared" si="15"/>
-        <v>51.569571914675187</v>
+        <v>12.136627527160673</v>
       </c>
       <c r="AB8">
         <f t="shared" si="16"/>
-        <v>10.781160618283298</v>
-      </c>
-    </row>
-    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
+        <v>6.54277038287924E-2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
       <c r="E9">
         <v>40.1</v>
       </c>
@@ -4020,12 +4124,10 @@
         <v>0.1</v>
       </c>
       <c r="G9">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H9">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I9">
         <v>36</v>
@@ -4044,70 +4146,92 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>30.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>6.8088178122196803</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>0.40144000000000002</v>
+        <v>33.07</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q9">
         <f t="shared" si="5"/>
-        <v>1.0775685934547277</v>
+        <v>0.42990999999999996</v>
       </c>
       <c r="R9">
         <f t="shared" si="6"/>
-        <v>6.3145663640778039E-4</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>230.01545720446902</v>
+        <v>1.0884955710061479</v>
       </c>
       <c r="T9">
         <f t="shared" si="8"/>
-        <v>19.17422317817697</v>
+        <v>6.9077008382776672E-4</v>
       </c>
       <c r="U9">
         <f t="shared" si="9"/>
-        <v>0.3725424093077615</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" si="10"/>
-        <v>1.5880560208062925E-3</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <f t="shared" si="11"/>
-        <v>3.9969975436015095</v>
+        <v>0.39495796900911029</v>
       </c>
       <c r="X9">
         <f t="shared" si="12"/>
-        <v>1.7038210565231603E-2</v>
+        <v>1.6262100812251892E-3</v>
       </c>
       <c r="Y9">
         <f t="shared" si="13"/>
-        <v>25.113876239101145</v>
+        <v>1.5154527644727562</v>
       </c>
       <c r="Z9">
         <f t="shared" si="14"/>
-        <v>0.10705423426876215</v>
+        <v>6.2397641181645138E-3</v>
       </c>
       <c r="AA9">
         <f t="shared" si="15"/>
-        <v>45.898674842076872</v>
+        <v>9.5225679054042853</v>
       </c>
       <c r="AB9">
         <f t="shared" si="16"/>
-        <v>8.259647272454945</v>
-      </c>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
+        <v>3.9194794317599875E-2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
       <c r="E10">
         <v>48.1</v>
       </c>
@@ -4115,12 +4239,10 @@
         <v>0.1</v>
       </c>
       <c r="G10">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H10">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I10">
         <v>47</v>
@@ -4139,70 +4261,92 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>38.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>7.5736384915045951</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.50544</v>
+        <v>41.07</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>1.1204773953989433</v>
+        <v>0.53391</v>
       </c>
       <c r="R10">
         <f t="shared" si="6"/>
-        <v>7.646000500110342E-4</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S10">
         <f t="shared" si="7"/>
-        <v>234.22336616305955</v>
+        <v>1.1336048200762028</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>17.087195502714753</v>
+        <v>8.2373782945253818E-4</v>
       </c>
       <c r="U10">
         <f t="shared" si="9"/>
-        <v>0.45109343756108466</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <f t="shared" si="10"/>
-        <v>1.5437423061231042E-3</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <f t="shared" si="11"/>
-        <v>3.3009815060518841</v>
+        <v>0.47098423590339861</v>
       </c>
       <c r="X10">
         <f t="shared" si="12"/>
-        <v>1.1296694605388043E-2</v>
+        <v>1.5803435661419876E-3</v>
       </c>
       <c r="Y10">
         <f t="shared" si="13"/>
-        <v>20.740678518479395</v>
+        <v>1.2708284064695643</v>
       </c>
       <c r="Z10">
         <f t="shared" si="14"/>
-        <v>7.0979224910650535E-2</v>
+        <v>4.2641458943576465E-3</v>
       </c>
       <c r="AA10">
         <f t="shared" si="15"/>
-        <v>51.430262173575315</v>
+        <v>7.9875708059258619</v>
       </c>
       <c r="AB10">
         <f t="shared" si="16"/>
-        <v>8.2481321417796494</v>
-      </c>
-    </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
+        <v>2.6765091068655045E-2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
       <c r="E11">
         <v>56.2</v>
       </c>
@@ -4210,12 +4354,10 @@
         <v>0.1</v>
       </c>
       <c r="G11">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H11">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I11">
         <v>54</v>
@@ -4234,70 +4376,92 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>46.980000000000004</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>8.0224684480526314</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.61074000000000006</v>
+        <v>49.17</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q11">
         <f t="shared" si="5"/>
-        <v>1.1717522552143862</v>
+        <v>0.63920999999999994</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>8.8346302846970134E-4</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S11">
         <f t="shared" si="7"/>
-        <v>228.39405280111521</v>
+        <v>1.1868401004768923</v>
       </c>
       <c r="T11">
         <f t="shared" si="8"/>
-        <v>15.543716869161278</v>
+        <v>9.4196331340479916E-4</v>
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>0.52121939367486669</v>
+        <v>44.360684643604657</v>
       </c>
       <c r="V11">
         <f t="shared" si="10"/>
-        <v>1.4989757429523885E-3</v>
+        <v>80.882341249362611</v>
       </c>
       <c r="W11">
         <f t="shared" si="11"/>
-        <v>2.8568604947562091</v>
+        <v>0.53858139756413237</v>
       </c>
       <c r="X11">
         <f t="shared" si="12"/>
-        <v>8.2160499678372058E-3</v>
+        <v>1.5343810432105888E-3</v>
       </c>
       <c r="Y11">
         <f t="shared" si="13"/>
-        <v>17.950184172658652</v>
+        <v>1.111327180427039</v>
       </c>
       <c r="Z11">
         <f t="shared" si="14"/>
-        <v>5.1622957850551834E-2</v>
+        <v>3.1660940503405953E-3</v>
       </c>
       <c r="AA11">
         <f t="shared" si="15"/>
-        <v>53.907642128265323</v>
+        <v>6.9891592816076384</v>
       </c>
       <c r="AB11">
         <f t="shared" si="16"/>
-        <v>7.864911324156691</v>
-      </c>
-    </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
+        <v>1.9847069817875124E-2</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="17"/>
+        <v>16.779761018379801</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="18"/>
+        <v>30.594360280640213</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="19"/>
+        <v>2.392961255844634</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="20"/>
+        <v>4.3630621036611039</v>
+      </c>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
       <c r="E12">
         <v>64.3</v>
       </c>
@@ -4305,12 +4469,10 @@
         <v>0.1</v>
       </c>
       <c r="G12">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H12">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I12">
         <v>84</v>
@@ -4329,70 +4491,92 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>55.08</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>9.7139075556647132</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>0.7160399999999999</v>
+        <v>57.269999999999996</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>1.2299240958693345</v>
+        <v>0.74450999999999989</v>
       </c>
       <c r="R12">
         <f t="shared" si="6"/>
-        <v>9.8679465142089751E-4</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S12">
         <f t="shared" si="7"/>
-        <v>263.07955258294965</v>
+        <v>1.2467137362281686</v>
       </c>
       <c r="T12">
         <f t="shared" si="8"/>
-        <v>14.355931519223729</v>
+        <v>1.0444470573066503E-3</v>
       </c>
       <c r="U12">
         <f t="shared" si="9"/>
-        <v>0.5821822683243626</v>
+        <v>157.25387220154249</v>
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>1.455134460416777E-3</v>
+        <v>23.720524545572694</v>
       </c>
       <c r="W12">
         <f t="shared" si="11"/>
-        <v>2.5577060242255381</v>
+        <v>0.59717798750854756</v>
       </c>
       <c r="X12">
         <f t="shared" si="12"/>
-        <v>6.3928538843655847E-3</v>
+        <v>1.4894033490024635E-3</v>
       </c>
       <c r="Y12">
         <f t="shared" si="13"/>
-        <v>16.070542596822211</v>
+        <v>1.00228099244337</v>
       </c>
       <c r="Z12">
         <f t="shared" si="14"/>
-        <v>4.0167455961961751E-2</v>
+        <v>2.4997583601744887E-3</v>
       </c>
       <c r="AA12">
         <f t="shared" si="15"/>
-        <v>65.625378982276217</v>
+        <v>6.3091314938121101</v>
       </c>
       <c r="AB12">
         <f t="shared" si="16"/>
-        <v>8.8424957276181075</v>
-      </c>
-    </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
+        <v>1.5644034035773555E-2</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="17"/>
+        <v>62.606086765516437</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="18"/>
+        <v>9.4439606278368675</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="19"/>
+        <v>8.2728084214146556</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="20"/>
+        <v>1.2479688393664514</v>
+      </c>
+    </row>
+    <row r="13" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
       <c r="E13">
         <v>72.400000000000006</v>
       </c>
@@ -4400,12 +4584,10 @@
         <v>0.1</v>
       </c>
       <c r="G13">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H13">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I13">
         <v>133</v>
@@ -4424,70 +4606,92 @@
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>63.180000000000007</v>
+        <v>81.2</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>11.973303637676613</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>0.82134000000000007</v>
+        <v>65.37</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q13">
         <f t="shared" si="5"/>
-        <v>1.2940631343176421</v>
+        <v>0.84981000000000007</v>
       </c>
       <c r="R13">
         <f t="shared" si="6"/>
-        <v>1.0758093681737316E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S13">
         <f t="shared" si="7"/>
-        <v>309.08677776927851</v>
+        <v>1.312317429625927</v>
       </c>
       <c r="T13">
         <f t="shared" si="8"/>
-        <v>13.405021701892121</v>
+        <v>1.1325713726985604E-3</v>
       </c>
       <c r="U13">
         <f t="shared" si="9"/>
-        <v>0.63469855389481566</v>
+        <v>233.73609072293476</v>
       </c>
       <c r="V13">
         <f t="shared" si="10"/>
-        <v>1.4121085476892219E-3</v>
+        <v>17.234690239016139</v>
       </c>
       <c r="W13">
         <f t="shared" si="11"/>
-        <v>2.3460760793497593</v>
+        <v>0.64756436271842888</v>
       </c>
       <c r="X13">
         <f t="shared" si="12"/>
-        <v>5.2196654062773226E-3</v>
+        <v>1.4451699117822756E-3</v>
       </c>
       <c r="Y13">
         <f t="shared" si="13"/>
-        <v>14.740836594629453</v>
+        <v>0.92429444923864046</v>
       </c>
       <c r="Z13">
         <f t="shared" si="14"/>
-        <v>3.2796042170264196E-2</v>
+        <v>2.0627486695833871E-3</v>
       </c>
       <c r="AA13">
         <f t="shared" si="15"/>
-        <v>80.504352454536956</v>
+        <v>5.8250168556180171</v>
       </c>
       <c r="AB13">
         <f t="shared" si="16"/>
-        <v>10.12813660366159</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
+        <v>1.2885924404303981E-2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="17"/>
+        <v>96.844995411244867</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="18"/>
+        <v>7.141735241692297</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="19"/>
+        <v>11.978100163534858</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="20"/>
+        <v>0.8833987534691442</v>
+      </c>
+    </row>
+    <row r="14" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
       <c r="E14">
         <v>80</v>
       </c>
@@ -4495,12 +4699,10 @@
         <v>0.1</v>
       </c>
       <c r="G14">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H14">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I14">
         <v>200</v>
@@ -4519,70 +4721,92 @@
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>70.78</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>14.503792607452716</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>0.92013999999999996</v>
+        <v>72.97</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
-        <v>1.358917811937131</v>
+        <v>0.94860999999999995</v>
       </c>
       <c r="R14">
         <f t="shared" si="6"/>
-        <v>1.1477003985022325E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S14">
         <f t="shared" si="7"/>
-        <v>358.09984747201133</v>
+        <v>1.3783544290566196</v>
       </c>
       <c r="T14">
         <f t="shared" si="8"/>
-        <v>12.665939769107817</v>
+        <v>1.2036755314696677E-3</v>
       </c>
       <c r="U14">
         <f t="shared" si="9"/>
-        <v>0.67711232564414225</v>
+        <v>298.87454823940067</v>
       </c>
       <c r="V14">
         <f t="shared" si="10"/>
-        <v>1.3721578641798366E-3</v>
+        <v>14.628057275221538</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
-        <v>2.1991197597443897</v>
+        <v>0.68821921270950059</v>
       </c>
       <c r="X14">
         <f t="shared" si="12"/>
-        <v>4.456482858639337E-3</v>
+        <v>1.4040183841757432E-3</v>
       </c>
       <c r="Y14">
         <f t="shared" si="13"/>
-        <v>13.817490753500914</v>
+        <v>0.86969403778915866</v>
       </c>
       <c r="Z14">
         <f t="shared" si="14"/>
-        <v>2.800074249372465E-2</v>
+        <v>1.7742405255684545E-3</v>
       </c>
       <c r="AA14">
         <f t="shared" si="15"/>
-        <v>96.336207370842274</v>
+        <v>5.4876873700589002</v>
       </c>
       <c r="AB14">
         <f t="shared" si="16"/>
-        <v>11.450758769005461</v>
-      </c>
-    </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
+        <v>1.1065209142702393E-2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="17"/>
+        <v>127.58342353718395</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="18"/>
+        <v>6.2457427101723049</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="19"/>
+        <v>14.93557952406691</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="20"/>
+        <v>0.73128877196331299</v>
+      </c>
+    </row>
+    <row r="15" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
       <c r="E15">
         <v>88.1</v>
       </c>
@@ -4590,12 +4814,10 @@
         <v>0.1</v>
       </c>
       <c r="G15">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H15">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I15">
         <v>221</v>
@@ -4614,70 +4836,92 @@
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>78.88</v>
+        <v>169.2</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>15.210522673465237</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>1.0254399999999999</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>1.4323153261764674</v>
+        <v>1.0539099999999999</v>
       </c>
       <c r="R15">
         <f t="shared" si="6"/>
-        <v>1.2134990151795129E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="7"/>
-        <v>356.58010064726568</v>
+        <v>1.4528338817979154</v>
       </c>
       <c r="T15">
         <f t="shared" si="8"/>
-        <v>11.997657840400036</v>
+        <v>1.2687329106391809E-3</v>
       </c>
       <c r="U15">
         <f t="shared" si="9"/>
-        <v>0.71593173741803651</v>
+        <v>302.97521115240761</v>
       </c>
       <c r="V15">
         <f t="shared" si="10"/>
-        <v>1.3297867742525383E-3</v>
+        <v>13.621199385504658</v>
       </c>
       <c r="W15">
         <f t="shared" si="11"/>
-        <v>2.0798785932590187</v>
+        <v>0.72541672740710172</v>
       </c>
       <c r="X15">
         <f t="shared" si="12"/>
-        <v>3.8632105559972606E-3</v>
+        <v>1.3603419300152991E-3</v>
       </c>
       <c r="Y15">
         <f t="shared" si="13"/>
-        <v>13.068290207420363</v>
+        <v>0.82509835157068612</v>
       </c>
       <c r="Z15">
         <f t="shared" si="14"/>
-        <v>2.4272984204546728E-2</v>
+        <v>1.5472704745037019E-3</v>
       </c>
       <c r="AA15">
         <f t="shared" si="15"/>
-        <v>98.638785898887491</v>
+        <v>5.2134629275728033</v>
       </c>
       <c r="AB15">
         <f t="shared" si="16"/>
-        <v>11.106168728168219</v>
-      </c>
-    </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
+        <v>9.6337550757266965E-3</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="17"/>
+        <v>132.69175922245068</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="18"/>
+        <v>5.9668331775689945</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="19"/>
+        <v>14.737162268061308</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="20"/>
+        <v>0.66280798562269405</v>
+      </c>
+    </row>
+    <row r="16" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
       <c r="E16">
         <v>96.3</v>
       </c>
@@ -4685,12 +4929,10 @@
         <v>0.1</v>
       </c>
       <c r="G16">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H16">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I16">
         <v>217</v>
@@ -4709,70 +4951,92 @@
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>87.08</v>
+        <v>165.2</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>15.07846145997661</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>1.1320399999999999</v>
+        <v>89.27</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>1.5104683252554487</v>
+        <v>1.1605099999999999</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>1.2703341205647313E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>336.29086792873704</v>
+        <v>1.5319214927991578</v>
       </c>
       <c r="T16">
         <f t="shared" si="8"/>
-        <v>11.418107718892136</v>
+        <v>1.3249363568000672E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="9"/>
-        <v>0.74946291893181582</v>
+        <v>285.29177960592153</v>
       </c>
       <c r="V16">
         <f t="shared" si="10"/>
-        <v>1.2870688072090391E-3</v>
+        <v>13.022217169508382</v>
       </c>
       <c r="W16">
         <f t="shared" si="11"/>
-        <v>1.9868242407680492</v>
+        <v>0.75755187550733605</v>
       </c>
       <c r="X16">
         <f t="shared" si="12"/>
-        <v>3.4120160465630502E-3</v>
+        <v>1.3163300323049366E-3</v>
       </c>
       <c r="Y16">
         <f t="shared" si="13"/>
-        <v>12.483632169678824</v>
+        <v>0.79009790000791202</v>
       </c>
       <c r="Z16">
         <f t="shared" si="14"/>
-        <v>2.143790337331436E-2</v>
+        <v>1.3728823435952353E-3</v>
       </c>
       <c r="AA16">
         <f t="shared" si="15"/>
-        <v>95.17975712273082</v>
+        <v>4.9992392893774928</v>
       </c>
       <c r="AB16">
         <f t="shared" si="16"/>
-        <v>10.199652649488197</v>
-      </c>
-    </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
+        <v>8.5351130759840649E-3</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="17"/>
+        <v>127.59606926188847</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="18"/>
+        <v>5.8251740423436447</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="19"/>
+        <v>13.504687166218568</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="20"/>
+        <v>0.6166167087537795</v>
+      </c>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
       <c r="E17">
         <v>104</v>
       </c>
@@ -4780,12 +5044,10 @@
         <v>0.1</v>
       </c>
       <c r="G17">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H17">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I17">
         <v>260</v>
@@ -4804,70 +5066,92 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>94.78</v>
+        <v>208.2</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>16.442627527253663</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>1.23214</v>
+        <v>96.97</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
-        <v>1.5868739646235299</v>
+        <v>1.26061</v>
       </c>
       <c r="R17">
         <f t="shared" si="6"/>
-        <v>1.316089531973345E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S17">
         <f t="shared" si="7"/>
-        <v>352.83587747665086</v>
+        <v>1.6090797283229941</v>
       </c>
       <c r="T17">
         <f t="shared" si="8"/>
-        <v>10.944645446262399</v>
+        <v>1.3702058713992067E-3</v>
       </c>
       <c r="U17">
         <f t="shared" si="9"/>
-        <v>0.77645737939390358</v>
+        <v>307.29724644882975</v>
       </c>
       <c r="V17">
         <f t="shared" si="10"/>
-        <v>1.2472353945103172E-3</v>
+        <v>12.1370015900676</v>
       </c>
       <c r="W17">
         <f t="shared" si="11"/>
-        <v>1.917749942762927</v>
+        <v>0.78343538720348294</v>
       </c>
       <c r="X17">
         <f t="shared" si="12"/>
-        <v>3.0805111393250512E-3</v>
+        <v>1.27534321020835E-3</v>
       </c>
       <c r="Y17">
         <f t="shared" si="13"/>
-        <v>12.049648717761187</v>
+        <v>0.76399426903847734</v>
       </c>
       <c r="Z17">
         <f t="shared" si="14"/>
-        <v>1.9354853658673052E-2</v>
+        <v>1.2436952932829964E-3</v>
       </c>
       <c r="AA17">
         <f t="shared" si="15"/>
-        <v>101.64488903296728</v>
+        <v>4.8401380300281573</v>
       </c>
       <c r="AB17">
         <f t="shared" si="16"/>
-        <v>10.440641746024788</v>
-      </c>
-    </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.25">
+        <v>7.7223146306136621E-3</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="17"/>
+        <v>139.67857486308742</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="18"/>
+        <v>5.5178654209749771</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="19"/>
+        <v>14.184404168042567</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="20"/>
+        <v>0.56042739420456511</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
       <c r="E18">
         <v>112</v>
       </c>
@@ -4875,12 +5159,10 @@
         <v>0.1</v>
       </c>
       <c r="G18">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H18">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I18">
         <v>202</v>
@@ -4899,70 +5181,92 @@
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>102.78</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>14.572576985557497</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>1.3361399999999999</v>
+        <v>104.97</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q18">
         <f t="shared" si="5"/>
-        <v>1.6689128496119863</v>
+        <v>1.3646099999999999</v>
       </c>
       <c r="R18">
         <f t="shared" si="6"/>
-        <v>1.357019599295008E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S18">
         <f t="shared" si="7"/>
-        <v>298.65225302180619</v>
+        <v>1.6917920829995627</v>
       </c>
       <c r="T18">
         <f t="shared" si="8"/>
-        <v>10.508958622728596</v>
+        <v>1.4107309712565075E-3</v>
       </c>
       <c r="U18">
         <f t="shared" si="9"/>
-        <v>0.80060501679919693</v>
+        <v>250.86459435302598</v>
       </c>
       <c r="V18">
         <f t="shared" si="10"/>
-        <v>1.2063493946944646E-3</v>
+        <v>12.171097160715654</v>
       </c>
       <c r="W18">
         <f t="shared" si="11"/>
-        <v>1.8599072746804759</v>
+        <v>0.80660620989580112</v>
       </c>
       <c r="X18">
         <f t="shared" si="12"/>
-        <v>2.8025030669541441E-3</v>
+        <v>1.2333421536153872E-3</v>
       </c>
       <c r="Y18">
         <f t="shared" si="13"/>
-        <v>11.686240337063516</v>
+        <v>0.74204753030939585</v>
       </c>
       <c r="Z18">
         <f t="shared" si="14"/>
-        <v>1.7607928914139759E-2</v>
+        <v>1.1346286302891179E-3</v>
       </c>
       <c r="AA18">
         <f t="shared" si="15"/>
-        <v>87.363170884351447</v>
+        <v>4.7068717706076511</v>
       </c>
       <c r="AB18">
         <f t="shared" si="16"/>
-        <v>8.6173569325914308</v>
-      </c>
-    </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.25">
+        <v>7.037094641265995E-3</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="17"/>
+        <v>115.63070890801508</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="18"/>
+        <v>5.6106747131572501</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="19"/>
+        <v>11.286014128754795</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="20"/>
+        <v>0.54767178087796919</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
       <c r="E19">
         <v>120</v>
       </c>
@@ -4970,12 +5274,10 @@
         <v>0.1</v>
       </c>
       <c r="G19">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H19">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I19">
         <v>198</v>
@@ -4994,70 +5296,92 @@
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>110.78</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>14.434680460612906</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>1.44014</v>
+        <v>112.97</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q19">
         <f t="shared" si="5"/>
-        <v>1.7532835536786398</v>
+        <v>1.46861</v>
       </c>
       <c r="R19">
         <f t="shared" si="6"/>
-        <v>1.3922600678902193E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S19">
         <f t="shared" si="7"/>
-        <v>284.80416231379218</v>
+        <v>1.7767428998310364</v>
       </c>
       <c r="T19">
         <f t="shared" si="8"/>
-        <v>10.12209465926469</v>
+        <v>1.445654565877113E-3</v>
       </c>
       <c r="U19">
         <f t="shared" si="9"/>
-        <v>0.82139594418619866</v>
+        <v>238.57730361576296</v>
       </c>
       <c r="V19">
         <f t="shared" si="10"/>
-        <v>1.1662139779764589E-3</v>
+        <v>11.778914439930588</v>
       </c>
       <c r="W19">
         <f t="shared" si="11"/>
-        <v>1.8128298604709989</v>
+        <v>0.82657428947072809</v>
       </c>
       <c r="X19">
         <f t="shared" si="12"/>
-        <v>2.5738470440939327E-3</v>
+        <v>1.192183152532823E-3</v>
       </c>
       <c r="Y19">
         <f t="shared" si="13"/>
-        <v>11.390474702679896</v>
+        <v>0.7241214172880438</v>
       </c>
       <c r="Z19">
         <f t="shared" si="14"/>
-        <v>1.6171099587766816E-2</v>
+        <v>1.0444135089560729E-3</v>
       </c>
       <c r="AA19">
         <f t="shared" si="15"/>
-        <v>84.386975200928831</v>
+        <v>4.5983914435465527</v>
       </c>
       <c r="AB19">
         <f t="shared" si="16"/>
-        <v>8.0176065415891848</v>
-      </c>
-    </row>
-    <row r="20" spans="5:28" x14ac:dyDescent="0.25">
+        <v>6.4711698409000819E-3</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="17"/>
+        <v>111.25669554495602</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="18"/>
+        <v>5.4934654734181985</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="19"/>
+        <v>10.46753911323197</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="20"/>
+        <v>0.51688795529137366</v>
+      </c>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
       <c r="E20">
         <v>128</v>
       </c>
@@ -5065,12 +5389,10 @@
         <v>0.1</v>
       </c>
       <c r="G20">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H20">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I20">
         <v>156</v>
@@ -5089,70 +5411,92 @@
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>118.78</v>
+        <v>104.2</v>
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>12.898061869908982</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>1.5441399999999998</v>
+        <v>120.97</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
-        <v>1.8396652792288057</v>
+        <v>1.5726099999999998</v>
       </c>
       <c r="R20">
         <f t="shared" si="6"/>
-        <v>1.4227076751751773E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S20">
         <f t="shared" si="7"/>
-        <v>244.13781650493826</v>
+        <v>1.8636260923532917</v>
       </c>
       <c r="T20">
         <f t="shared" si="8"/>
-        <v>9.7747088269877604</v>
+        <v>1.4758590759876029E-3</v>
       </c>
       <c r="U20">
         <f t="shared" si="9"/>
-        <v>0.83935921247984246</v>
+        <v>194.63996737769199</v>
       </c>
       <c r="V20">
         <f t="shared" si="10"/>
-        <v>1.1270577308499091E-3</v>
+        <v>12.047173922629092</v>
       </c>
       <c r="W20">
         <f t="shared" si="11"/>
-        <v>1.774033182397782</v>
+        <v>0.84384416297487463</v>
       </c>
       <c r="X20">
         <f t="shared" si="12"/>
-        <v>2.3821002775420239E-3</v>
+        <v>1.1520926020507289E-3</v>
       </c>
       <c r="Y20">
         <f t="shared" si="13"/>
-        <v>11.146740012753742</v>
+        <v>0.70930175528538064</v>
       </c>
       <c r="Z20">
         <f t="shared" si="14"/>
-        <v>1.4966190083317109E-2</v>
+        <v>9.6840310182985168E-4</v>
       </c>
       <c r="AA20">
         <f t="shared" si="15"/>
-        <v>73.124198716861244</v>
+        <v>4.5089825300395079</v>
       </c>
       <c r="AB20">
         <f t="shared" si="16"/>
-        <v>6.7094892240223745</v>
-      </c>
-    </row>
-    <row r="21" spans="5:28" x14ac:dyDescent="0.25">
+        <v>5.9950655818653215E-3</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="17"/>
+        <v>91.662721362323168</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="18"/>
+        <v>5.6737598939702867</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="19"/>
+        <v>8.3340078748198252</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="20"/>
+        <v>0.51588112372481132</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
       <c r="E21">
         <v>135.9</v>
       </c>
@@ -5160,12 +5504,10 @@
         <v>0.1</v>
       </c>
       <c r="G21">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H21">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I21">
         <v>136</v>
@@ -5184,70 +5526,92 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>126.68</v>
+        <v>84.2</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>12.097933707869291</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>1.6468400000000001</v>
+        <v>128.87</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q21">
         <f t="shared" si="5"/>
-        <v>1.9266764091564521</v>
+        <v>1.6753100000000001</v>
       </c>
       <c r="R21">
         <f t="shared" si="6"/>
-        <v>1.4488066817395495E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S21">
         <f t="shared" si="7"/>
-        <v>220.72922791689484</v>
+        <v>1.9510672966609841</v>
       </c>
       <c r="T21">
         <f t="shared" si="8"/>
-        <v>9.464733120033479</v>
+        <v>1.5017774232154147E-3</v>
       </c>
       <c r="U21">
         <f t="shared" si="9"/>
-        <v>0.85475692346335863</v>
+        <v>169.51851352159872</v>
       </c>
       <c r="V21">
         <f t="shared" si="10"/>
-        <v>1.0895370354136265E-3</v>
+        <v>12.178784442753974</v>
       </c>
       <c r="W21">
         <f t="shared" si="11"/>
-        <v>1.7420755000814485</v>
+        <v>0.85866335972474694</v>
       </c>
       <c r="X21">
         <f t="shared" si="12"/>
-        <v>2.2205795866909023E-3</v>
+        <v>1.1137300485199026E-3</v>
       </c>
       <c r="Y21">
         <f t="shared" si="13"/>
-        <v>10.945976187865643</v>
+        <v>0.69706030798527308</v>
       </c>
       <c r="Z21">
         <f t="shared" si="14"/>
-        <v>1.3951212612776567E-2</v>
+        <v>9.0412267140710292E-4</v>
       </c>
       <c r="AA21">
         <f t="shared" si="15"/>
-        <v>66.716398590574485</v>
+        <v>4.4353265260900256</v>
       </c>
       <c r="AB21">
         <f t="shared" si="16"/>
-        <v>5.9275956044817715</v>
-      </c>
-    </row>
-    <row r="22" spans="5:28" x14ac:dyDescent="0.25">
+        <v>5.5930086703356568E-3</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="17"/>
+        <v>80.492299884038772</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="18"/>
+        <v>5.7830622745491009</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="19"/>
+        <v>7.0905254844768439</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="20"/>
+        <v>0.50944043961120289</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
       <c r="E22">
         <v>143.9</v>
       </c>
@@ -5255,12 +5619,10 @@
         <v>0.1</v>
       </c>
       <c r="G22">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H22">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I22">
         <v>110</v>
@@ -5279,70 +5641,92 @@
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>134.68</v>
+        <v>58.2</v>
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>10.970870521521983</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>1.75084</v>
+        <v>136.87</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q22">
         <f t="shared" si="5"/>
-        <v>2.0162938043846688</v>
+        <v>1.7793099999999999</v>
       </c>
       <c r="R22">
         <f t="shared" si="6"/>
-        <v>1.4718395115429017E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>192.52591942006811</v>
+        <v>2.0410644468267041</v>
       </c>
       <c r="T22">
         <f t="shared" si="8"/>
-        <v>9.1790551597182652</v>
+        <v>1.5246759205737388E-3</v>
       </c>
       <c r="U22">
         <f t="shared" si="9"/>
-        <v>0.86834567273509045</v>
+        <v>136.75536175168631</v>
       </c>
       <c r="V22">
         <f t="shared" si="10"/>
-        <v>1.0528427908513961E-3</v>
+        <v>12.889669627868761</v>
       </c>
       <c r="W22">
         <f t="shared" si="11"/>
-        <v>1.714813744853867</v>
+        <v>0.87175591283574583</v>
       </c>
       <c r="X22">
         <f t="shared" si="12"/>
-        <v>2.0791596545136105E-3</v>
+        <v>1.0762561876238993E-3</v>
       </c>
       <c r="Y22">
         <f t="shared" si="13"/>
-        <v>10.774718003742557</v>
+        <v>0.68659143823688285</v>
       </c>
       <c r="Z22">
         <f t="shared" si="14"/>
-        <v>1.3062545955859138E-2</v>
+        <v>8.4765502922521426E-4</v>
       </c>
       <c r="AA22">
         <f t="shared" si="15"/>
-        <v>58.652462398738784</v>
+        <v>4.3724858573615881</v>
       </c>
       <c r="AB22">
         <f t="shared" si="16"/>
-        <v>5.0539936963465459</v>
-      </c>
-    </row>
-    <row r="23" spans="5:28" x14ac:dyDescent="0.25">
+        <v>5.2402926179159317E-3</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="17"/>
+        <v>65.400362563243334</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="18"/>
+        <v>6.164336761233117</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="19"/>
+        <v>5.5901829634128317</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="20"/>
+        <v>0.52691204527124824</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
       <c r="E23">
         <v>151.9</v>
       </c>
@@ -5350,12 +5734,10 @@
         <v>0.1</v>
       </c>
       <c r="G23">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H23">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I23">
         <v>82</v>
@@ -5374,70 +5756,92 @@
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>142.68</v>
+        <v>30.200000000000003</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>9.6104110213871721</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>1.85484</v>
+        <v>144.87</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q23">
         <f t="shared" si="5"/>
-        <v>2.1072331208482842</v>
+        <v>1.88331</v>
       </c>
       <c r="R23">
         <f t="shared" si="6"/>
-        <v>1.4919754677847749E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>161.49898351834696</v>
+        <v>2.1323359388473477</v>
       </c>
       <c r="T23">
         <f t="shared" si="8"/>
-        <v>8.9177781801739506</v>
+        <v>1.5447166422157628E-3</v>
       </c>
       <c r="U23">
         <f t="shared" si="9"/>
-        <v>0.8802253446231515</v>
+        <v>95.75274773418964</v>
       </c>
       <c r="V23">
         <f t="shared" si="10"/>
-        <v>1.0175535406256968E-3</v>
+        <v>15.235588824310783</v>
       </c>
       <c r="W23">
         <f t="shared" si="11"/>
-        <v>1.6916703250893261</v>
+        <v>0.88321449059196522</v>
       </c>
       <c r="X23">
         <f t="shared" si="12"/>
-        <v>1.9555959611717733E-3</v>
+        <v>1.0402514567842518E-3</v>
       </c>
       <c r="Y23">
         <f t="shared" si="13"/>
-        <v>10.629335381635325</v>
+        <v>0.67768379296430714</v>
       </c>
       <c r="Z23">
         <f t="shared" si="14"/>
-        <v>1.2286088691169232E-2</v>
+        <v>7.9817706840124957E-4</v>
       </c>
       <c r="AA23">
         <f t="shared" si="15"/>
-        <v>49.535521331935129</v>
+        <v>4.3191302430927578</v>
       </c>
       <c r="AB23">
         <f t="shared" si="16"/>
-        <v>4.1470110035678953</v>
-      </c>
-    </row>
-    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
+        <v>4.9316241034064248E-3</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="17"/>
+        <v>46.073700536150952</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="18"/>
+        <v>7.3310112980894271</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="19"/>
+        <v>3.8279289225859405</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="20"/>
+        <v>0.60908304183670903</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
       <c r="E24">
         <v>160.30000000000001</v>
       </c>
@@ -5445,12 +5849,10 @@
         <v>0.1</v>
       </c>
       <c r="G24">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H24">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I24">
         <v>59</v>
@@ -5469,70 +5871,92 @@
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>151.08000000000001</v>
+        <v>7.2000000000000028</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>8.3282651254628046</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>1.96404</v>
+        <v>153.27000000000001</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q24">
         <f t="shared" si="5"/>
-        <v>2.2039630490550426</v>
+        <v>1.99251</v>
       </c>
       <c r="R24">
         <f t="shared" si="6"/>
-        <v>1.5104760115307013E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>133.12724208605087</v>
+        <v>2.229371234249693</v>
       </c>
       <c r="T24">
         <f t="shared" si="8"/>
-        <v>8.6661558042318809</v>
+        <v>1.5631503649850276E-3</v>
       </c>
       <c r="U24">
         <f t="shared" si="9"/>
-        <v>0.89114016718297051</v>
+        <v>45.45426854993277</v>
       </c>
       <c r="V24">
         <f t="shared" si="10"/>
-        <v>9.8207135917763029E-4</v>
+        <v>26.288567924663464</v>
       </c>
       <c r="W24">
         <f t="shared" si="11"/>
-        <v>1.6709504853738415</v>
+        <v>0.89375424307499418</v>
       </c>
       <c r="X24">
         <f t="shared" si="12"/>
-        <v>1.841452865352301E-3</v>
+        <v>1.0040776066561161E-3</v>
       </c>
       <c r="Y24">
         <f t="shared" si="13"/>
-        <v>10.499180969535601</v>
+        <v>0.6696920888745681</v>
       </c>
       <c r="Z24">
         <f t="shared" si="14"/>
-        <v>1.15688341206999E-2</v>
+        <v>7.523576363455529E-4</v>
       </c>
       <c r="AA24">
         <f t="shared" si="15"/>
-        <v>41.085561277925265</v>
+        <v>4.2713532739295994</v>
       </c>
       <c r="AB24">
         <f t="shared" si="16"/>
-        <v>3.3426102165994247</v>
-      </c>
-    </row>
-    <row r="25" spans="5:28" x14ac:dyDescent="0.25">
+        <v>4.6461165638866644E-3</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="17"/>
+        <v>21.993377431484312</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="18"/>
+        <v>12.719919835646346</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="19"/>
+        <v>1.7764923783249893</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="20"/>
+        <v>1.0274387013850204</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
       <c r="E25">
         <v>169.3</v>
       </c>
@@ -5540,12 +5964,10 @@
         <v>0.1</v>
       </c>
       <c r="G25">
-        <f>offset!$E$2</f>
-        <v>9.2199999999999989</v>
+        <v>7.03</v>
       </c>
       <c r="H25">
-        <f>offset!$E$3</f>
-        <v>8.3666002653408109E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I25">
         <v>49</v>
@@ -5564,67 +5986,83 @@
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>160.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>0.13038404810405335</v>
+        <v>7.7045441137032888</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>2.0810400000000002</v>
+        <v>162.27000000000001</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>1.6949926253526934E-3</v>
+        <v>0.13453624047073712</v>
       </c>
       <c r="Q25">
         <f t="shared" si="5"/>
-        <v>2.3088368243771584</v>
+        <v>2.1095100000000002</v>
       </c>
       <c r="R25">
         <f t="shared" si="6"/>
-        <v>1.5277595262781388E-3</v>
+        <v>1.7489711261195824E-3</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>117.86203071699451</v>
+        <v>2.3345304538814653</v>
       </c>
       <c r="T25">
         <f t="shared" si="8"/>
-        <v>8.4189436183524862</v>
+        <v>1.5803914976248376E-3</v>
       </c>
       <c r="U25">
         <f t="shared" si="9"/>
-        <v>0.90133697541028712</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <f t="shared" si="10"/>
-        <v>9.4586591049339948E-4</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <f t="shared" si="11"/>
-        <v>1.6520470540029686</v>
+        <v>0.90361211458718016</v>
       </c>
       <c r="X25">
         <f t="shared" si="12"/>
-        <v>1.7336634727551884E-3</v>
+        <v>9.6718902230843442E-4</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="13"/>
-        <v>10.380440022745242</v>
+        <f>1/137*82/W25</f>
+        <v>0.66238614591709799</v>
       </c>
       <c r="Z25">
         <f t="shared" si="14"/>
-        <v>1.0891511868568493E-2</v>
+        <v>7.0899072568642507E-4</v>
       </c>
       <c r="AA25">
         <f t="shared" si="15"/>
-        <v>36.581881434113001</v>
+        <v>4.2277549129465468</v>
       </c>
       <c r="AB25">
         <f t="shared" si="16"/>
-        <v>2.8913289187523574</v>
+        <v>4.3761986187743377E-3</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/523/data/friedrich.xlsx
+++ b/523/data/friedrich.xlsx
@@ -485,11 +485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196307584"/>
-        <c:axId val="198824320"/>
+        <c:axId val="192023936"/>
+        <c:axId val="192204800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196307584"/>
+        <c:axId val="192023936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,12 +499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198824320"/>
+        <c:crossAx val="192204800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198824320"/>
+        <c:axId val="192204800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196307584"/>
+        <c:crossAx val="192023936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -712,11 +712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199438720"/>
-        <c:axId val="199479296"/>
+        <c:axId val="192282624"/>
+        <c:axId val="192284160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199438720"/>
+        <c:axId val="192282624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,12 +726,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199479296"/>
+        <c:crossAx val="192284160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199479296"/>
+        <c:axId val="192284160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199438720"/>
+        <c:crossAx val="192282624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -974,11 +974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200542080"/>
-        <c:axId val="200543616"/>
+        <c:axId val="192308352"/>
+        <c:axId val="192309888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200542080"/>
+        <c:axId val="192308352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200543616"/>
+        <c:crossAx val="192309888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200543616"/>
+        <c:axId val="192309888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200542080"/>
+        <c:crossAx val="192308352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1040,7 +1040,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1222,11 +1221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200655616"/>
-        <c:axId val="200657536"/>
+        <c:axId val="192437248"/>
+        <c:axId val="192475904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200655616"/>
+        <c:axId val="192437248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,12 +1235,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200657536"/>
+        <c:crossAx val="192475904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200657536"/>
+        <c:axId val="192475904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,14 +1251,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200655616"/>
+        <c:crossAx val="192437248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1392,7 +1390,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>35.295333990659216</c:v>
+                  <c:v>1.4755260528096863</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1410,46 +1408,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.779761018379801</c:v>
+                  <c:v>0.64414106241062696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.606086765516437</c:v>
+                  <c:v>2.3449009704662922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.844995411244867</c:v>
+                  <c:v>3.5354854501262087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>127.58342353718395</c:v>
+                  <c:v>4.5446989348808868</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>132.69175922245068</c:v>
+                  <c:v>4.60391494945591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>127.59606926188847</c:v>
+                  <c:v>4.3113210134413986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>139.67857486308742</c:v>
+                  <c:v>4.6050286173785491</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115.63070890801508</c:v>
+                  <c:v>3.7178427248380328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111.25669554495602</c:v>
+                  <c:v>3.4906409745851179</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.662721362323168</c:v>
+                  <c:v>2.8080489588382669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.492299884038772</c:v>
+                  <c:v>2.4099583207645021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.400362563243334</c:v>
+                  <c:v>1.9144459824533346</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.073700536150952</c:v>
+                  <c:v>1.3195218975153087</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.993377431484312</c:v>
+                  <c:v>0.61601608256582474</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1557,7 +1555,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>20.480430024224741</c:v>
+                  <c:v>0.85618705524891137</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1575,46 +1573,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.392961255844634</c:v>
+                  <c:v>9.1860939137264522E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2728084214146556</c:v>
+                  <c:v>0.30985671678399657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.978100163534858</c:v>
+                  <c:v>0.43728019882186597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.93557952406691</c:v>
+                  <c:v>0.53202610866663913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.737162268061308</c:v>
+                  <c:v>0.51132521021701416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.504687166218568</c:v>
+                  <c:v>0.45630748577504232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.184404168042567</c:v>
+                  <c:v>0.46764213608512034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.286014128754795</c:v>
+                  <c:v>0.36287614179023497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.46753911323197</c:v>
+                  <c:v>0.32841547875161936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3340078748198252</c:v>
+                  <c:v>0.25530882989316261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0905254844768439</c:v>
+                  <c:v>0.21229199456998202</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5901829634128317</c:v>
+                  <c:v>0.16363981629514124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8279289225859405</c:v>
+                  <c:v>0.10962948442834804</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7764923783249893</c:v>
+                  <c:v>4.9758063717726529E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1632,11 +1630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202532736"/>
-        <c:axId val="203038720"/>
+        <c:axId val="293571584"/>
+        <c:axId val="78643968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202532736"/>
+        <c:axId val="293571584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,12 +1644,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203038720"/>
+        <c:crossAx val="78643968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203038720"/>
+        <c:axId val="78643968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202532736"/>
+        <c:crossAx val="293571584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1818,46 +1816,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.392961255844634</c:v>
+                  <c:v>9.1860939137264522E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2728084214146556</c:v>
+                  <c:v>0.30985671678399657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.978100163534858</c:v>
+                  <c:v>0.43728019882186597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.93557952406691</c:v>
+                  <c:v>0.53202610866663913</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.737162268061308</c:v>
+                  <c:v>0.51132521021701416</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.504687166218568</c:v>
+                  <c:v>0.45630748577504232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.184404168042567</c:v>
+                  <c:v>0.46764213608512034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.286014128754795</c:v>
+                  <c:v>0.36287614179023497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.46753911323197</c:v>
+                  <c:v>0.32841547875161936</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3340078748198252</c:v>
+                  <c:v>0.25530882989316261</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0905254844768439</c:v>
+                  <c:v>0.21229199456998202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5901829634128317</c:v>
+                  <c:v>0.16363981629514124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8279289225859405</c:v>
+                  <c:v>0.10962948442834804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7764923783249893</c:v>
+                  <c:v>4.9758063717726529E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1875,11 +1873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302668416"/>
-        <c:axId val="303202688"/>
+        <c:axId val="78666752"/>
+        <c:axId val="78684928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302668416"/>
+        <c:axId val="78666752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,12 +1887,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="303202688"/>
+        <c:crossAx val="78684928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303202688"/>
+        <c:axId val="78684928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302668416"/>
+        <c:crossAx val="78666752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2123,11 +2121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206378496"/>
-        <c:axId val="206380032"/>
+        <c:axId val="192418944"/>
+        <c:axId val="192420480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206378496"/>
+        <c:axId val="192418944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,12 +2135,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206380032"/>
+        <c:crossAx val="192420480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206380032"/>
+        <c:axId val="192420480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206378496"/>
+        <c:crossAx val="192418944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3549,7 +3547,7 @@
   <dimension ref="C4:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:Y25"/>
+      <selection activeCell="U5" sqref="U5:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,12 +3715,12 @@
         <v>6.7477498473273256E-5</v>
       </c>
       <c r="U5">
-        <f>SQRT(M5/Q5/R5)</f>
-        <v>348.47024885804251</v>
+        <f>SQRT(M5/Q5/S5)</f>
+        <v>14.567844320588996</v>
       </c>
       <c r="V5">
         <f>IF(U5=0,0,U5*SQRT((0.5*N5/M5)^2+(0.5*R5/Q5)^2+(0.5*T5/S5)^2))</f>
-        <v>178.40629438366071</v>
+        <v>7.4582984656836562</v>
       </c>
       <c r="W5">
         <f>Q5/S5</f>
@@ -3750,19 +3748,19 @@
       </c>
       <c r="AC5">
         <f>U5/SQRT(AA5)</f>
-        <v>35.295333990659216</v>
+        <v>1.4755260528096863</v>
       </c>
       <c r="AD5">
         <f>IF(AC5=0,0,AC5*SQRT((V5/U5)^2+(0.5*AB5/AA5)^2))</f>
-        <v>18.087824319770391</v>
+        <v>0.7561638609094623</v>
       </c>
       <c r="AE5">
         <f>AC5/SQRT(O5)</f>
-        <v>20.480430024224741</v>
+        <v>0.85618705524891137</v>
       </c>
       <c r="AF5">
         <f>IF(AE5=0,0,AE5*SQRT((AD5/AC5)^2+(0.5*P5/O5)^2))</f>
-        <v>10.505865711663422</v>
+        <v>0.43919908985651807</v>
       </c>
     </row>
     <row r="6" spans="3:32" x14ac:dyDescent="0.25">
@@ -3832,7 +3830,7 @@
         <v>2.4692250351894735E-4</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U25" si="9">SQRT(M6/Q6/R6)</f>
+        <f t="shared" ref="U6:U25" si="9">SQRT(M6/Q6/S6)</f>
         <v>0</v>
       </c>
       <c r="V6">
@@ -4408,11 +4406,11 @@
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>44.360684643604657</v>
+        <v>1.7029168951986273</v>
       </c>
       <c r="V11">
         <f t="shared" si="10"/>
-        <v>80.882341249362611</v>
+        <v>3.104909370613544</v>
       </c>
       <c r="W11">
         <f t="shared" si="11"/>
@@ -4440,19 +4438,19 @@
       </c>
       <c r="AC11">
         <f t="shared" si="17"/>
-        <v>16.779761018379801</v>
+        <v>0.64414106241062696</v>
       </c>
       <c r="AD11">
         <f t="shared" si="18"/>
-        <v>30.594360280640213</v>
+        <v>1.1744555666411944</v>
       </c>
       <c r="AE11">
         <f t="shared" si="19"/>
-        <v>2.392961255844634</v>
+        <v>9.1860939137264522E-2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="20"/>
-        <v>4.3630621036611039</v>
+        <v>0.16748912310118072</v>
       </c>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.25">
@@ -4523,11 +4521,11 @@
       </c>
       <c r="U12">
         <f t="shared" si="9"/>
-        <v>157.25387220154249</v>
+        <v>5.8899186418737264</v>
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>23.720524545572694</v>
+        <v>0.88844845446433141</v>
       </c>
       <c r="W12">
         <f t="shared" si="11"/>
@@ -4555,19 +4553,19 @@
       </c>
       <c r="AC12">
         <f t="shared" si="17"/>
-        <v>62.606086765516437</v>
+        <v>2.3449009704662922</v>
       </c>
       <c r="AD12">
         <f t="shared" si="18"/>
-        <v>9.4439606278368675</v>
+        <v>0.35372203543406455</v>
       </c>
       <c r="AE12">
         <f t="shared" si="19"/>
-        <v>8.2728084214146556</v>
+        <v>0.30985671678399657</v>
       </c>
       <c r="AF12">
         <f t="shared" si="20"/>
-        <v>1.2479688393664514</v>
+        <v>4.6742473355704639E-2</v>
       </c>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.25">
@@ -4638,11 +4636,11 @@
       </c>
       <c r="U13">
         <f t="shared" si="9"/>
-        <v>233.73609072293476</v>
+        <v>8.5329194803634003</v>
       </c>
       <c r="V13">
         <f t="shared" si="10"/>
-        <v>17.234690239016139</v>
+        <v>0.62918064396333995</v>
       </c>
       <c r="W13">
         <f t="shared" si="11"/>
@@ -4670,19 +4668,19 @@
       </c>
       <c r="AC13">
         <f t="shared" si="17"/>
-        <v>96.844995411244867</v>
+        <v>3.5354854501262087</v>
       </c>
       <c r="AD13">
         <f t="shared" si="18"/>
-        <v>7.141735241692297</v>
+        <v>0.26072076237328135</v>
       </c>
       <c r="AE13">
         <f t="shared" si="19"/>
-        <v>11.978100163534858</v>
+        <v>0.43728019882186597</v>
       </c>
       <c r="AF13">
         <f t="shared" si="20"/>
-        <v>0.8833987534691442</v>
+        <v>3.2249920879103507E-2</v>
       </c>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.25">
@@ -4753,11 +4751,11 @@
       </c>
       <c r="U14">
         <f t="shared" si="9"/>
-        <v>298.87454823940067</v>
+        <v>10.646326955246955</v>
       </c>
       <c r="V14">
         <f t="shared" si="10"/>
-        <v>14.628057275221538</v>
+        <v>0.52107173859228206</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
@@ -4785,19 +4783,19 @@
       </c>
       <c r="AC14">
         <f t="shared" si="17"/>
-        <v>127.58342353718395</v>
+        <v>4.5446989348808868</v>
       </c>
       <c r="AD14">
         <f t="shared" si="18"/>
-        <v>6.2457427101723049</v>
+        <v>0.22248203924538346</v>
       </c>
       <c r="AE14">
         <f t="shared" si="19"/>
-        <v>14.93557952406691</v>
+        <v>0.53202610866663913</v>
       </c>
       <c r="AF14">
         <f t="shared" si="20"/>
-        <v>0.73128877196331299</v>
+        <v>2.6049522821147659E-2</v>
       </c>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.25">
@@ -4868,11 +4866,11 @@
       </c>
       <c r="U15">
         <f t="shared" si="9"/>
-        <v>302.97521115240761</v>
+        <v>10.512123074656817</v>
       </c>
       <c r="V15">
         <f t="shared" si="10"/>
-        <v>13.621199385504658</v>
+        <v>0.47260541157882424</v>
       </c>
       <c r="W15">
         <f t="shared" si="11"/>
@@ -4900,19 +4898,19 @@
       </c>
       <c r="AC15">
         <f t="shared" si="17"/>
-        <v>132.69175922245068</v>
+        <v>4.60391494945591</v>
       </c>
       <c r="AD15">
         <f t="shared" si="18"/>
-        <v>5.9668331775689945</v>
+        <v>0.2070271177961103</v>
       </c>
       <c r="AE15">
         <f t="shared" si="19"/>
-        <v>14.737162268061308</v>
+        <v>0.51132521021701416</v>
       </c>
       <c r="AF15">
         <f t="shared" si="20"/>
-        <v>0.66280798562269405</v>
+        <v>2.2996994022148595E-2</v>
       </c>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.25">
@@ -4983,11 +4981,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="9"/>
-        <v>285.29177960592153</v>
+        <v>9.6396734749922626</v>
       </c>
       <c r="V16">
         <f t="shared" si="10"/>
-        <v>13.022217169508382</v>
+        <v>0.4400053924017559</v>
       </c>
       <c r="W16">
         <f t="shared" si="11"/>
@@ -5015,19 +5013,19 @@
       </c>
       <c r="AC16">
         <f t="shared" si="17"/>
-        <v>127.59606926188847</v>
+        <v>4.3113210134413986</v>
       </c>
       <c r="AD16">
         <f t="shared" si="18"/>
-        <v>5.8251740423436447</v>
+        <v>0.19682577528437126</v>
       </c>
       <c r="AE16">
         <f t="shared" si="19"/>
-        <v>13.504687166218568</v>
+        <v>0.45630748577504232</v>
       </c>
       <c r="AF16">
         <f t="shared" si="20"/>
-        <v>0.6166167087537795</v>
+        <v>2.0834752896916147E-2</v>
       </c>
     </row>
     <row r="17" spans="3:32" x14ac:dyDescent="0.25">
@@ -5098,11 +5096,11 @@
       </c>
       <c r="U17">
         <f t="shared" si="9"/>
-        <v>307.29724644882975</v>
+        <v>10.131207419073251</v>
       </c>
       <c r="V17">
         <f t="shared" si="10"/>
-        <v>12.1370015900676</v>
+        <v>0.40014182351312433</v>
       </c>
       <c r="W17">
         <f t="shared" si="11"/>
@@ -5130,19 +5128,19 @@
       </c>
       <c r="AC17">
         <f t="shared" si="17"/>
-        <v>139.67857486308742</v>
+        <v>4.6050286173785491</v>
       </c>
       <c r="AD17">
         <f t="shared" si="18"/>
-        <v>5.5178654209749771</v>
+        <v>0.18191714939345602</v>
       </c>
       <c r="AE17">
         <f t="shared" si="19"/>
-        <v>14.184404168042567</v>
+        <v>0.46764213608512034</v>
       </c>
       <c r="AF17">
         <f t="shared" si="20"/>
-        <v>0.56042739420456511</v>
+        <v>1.8476593069513988E-2</v>
       </c>
     </row>
     <row r="18" spans="3:32" x14ac:dyDescent="0.25">
@@ -5213,11 +5211,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="9"/>
-        <v>250.86459435302598</v>
+        <v>8.0659810515975519</v>
       </c>
       <c r="V18">
         <f t="shared" si="10"/>
-        <v>12.171097160715654</v>
+        <v>0.391333975719723</v>
       </c>
       <c r="W18">
         <f t="shared" si="11"/>
@@ -5245,19 +5243,19 @@
       </c>
       <c r="AC18">
         <f t="shared" si="17"/>
-        <v>115.63070890801508</v>
+        <v>3.7178427248380328</v>
       </c>
       <c r="AD18">
         <f t="shared" si="18"/>
-        <v>5.6106747131572501</v>
+        <v>0.18039849760272886</v>
       </c>
       <c r="AE18">
         <f t="shared" si="19"/>
-        <v>11.286014128754795</v>
+        <v>0.36287614179023497</v>
       </c>
       <c r="AF18">
         <f t="shared" si="20"/>
-        <v>0.54767178087796919</v>
+        <v>1.7609141770081362E-2</v>
       </c>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.25">
@@ -5328,11 +5326,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="9"/>
-        <v>238.57730361576296</v>
+        <v>7.4852817399264557</v>
       </c>
       <c r="V19">
         <f t="shared" si="10"/>
-        <v>11.778914439930588</v>
+        <v>0.36955943351328552</v>
       </c>
       <c r="W19">
         <f t="shared" si="11"/>
@@ -5360,19 +5358,19 @@
       </c>
       <c r="AC19">
         <f t="shared" si="17"/>
-        <v>111.25669554495602</v>
+        <v>3.4906409745851179</v>
       </c>
       <c r="AD19">
         <f t="shared" si="18"/>
-        <v>5.4934654734181985</v>
+        <v>0.17235561042017264</v>
       </c>
       <c r="AE19">
         <f t="shared" si="19"/>
-        <v>10.46753911323197</v>
+        <v>0.32841547875161936</v>
       </c>
       <c r="AF19">
         <f t="shared" si="20"/>
-        <v>0.51688795529137366</v>
+        <v>1.6217183758442021E-2</v>
       </c>
     </row>
     <row r="20" spans="3:32" x14ac:dyDescent="0.25">
@@ -5443,11 +5441,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="9"/>
-        <v>194.63996737769199</v>
+        <v>5.9627136268714187</v>
       </c>
       <c r="V20">
         <f t="shared" si="10"/>
-        <v>12.047173922629092</v>
+        <v>0.36906011176193548</v>
       </c>
       <c r="W20">
         <f t="shared" si="11"/>
@@ -5475,19 +5473,19 @@
       </c>
       <c r="AC20">
         <f t="shared" si="17"/>
-        <v>91.662721362323168</v>
+        <v>2.8080489588382669</v>
       </c>
       <c r="AD20">
         <f t="shared" si="18"/>
-        <v>5.6737598939702867</v>
+        <v>0.17381325064510153</v>
       </c>
       <c r="AE20">
         <f t="shared" si="19"/>
-        <v>8.3340078748198252</v>
+        <v>0.25530882989316261</v>
       </c>
       <c r="AF20">
         <f t="shared" si="20"/>
-        <v>0.51588112372481132</v>
+        <v>1.5803801489088328E-2</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.25">
@@ -5558,11 +5556,11 @@
       </c>
       <c r="U21">
         <f t="shared" si="9"/>
-        <v>169.51851352159872</v>
+        <v>5.0754240191118773</v>
       </c>
       <c r="V21">
         <f t="shared" si="10"/>
-        <v>12.178784442753974</v>
+        <v>0.36463566014259507</v>
       </c>
       <c r="W21">
         <f t="shared" si="11"/>
@@ -5590,19 +5588,19 @@
       </c>
       <c r="AC21">
         <f t="shared" si="17"/>
-        <v>80.492299884038772</v>
+        <v>2.4099583207645021</v>
       </c>
       <c r="AD21">
         <f t="shared" si="18"/>
-        <v>5.7830622745491009</v>
+        <v>0.17314623967916365</v>
       </c>
       <c r="AE21">
         <f t="shared" si="19"/>
-        <v>7.0905254844768439</v>
+        <v>0.21229199456998202</v>
       </c>
       <c r="AF21">
         <f t="shared" si="20"/>
-        <v>0.50944043961120289</v>
+        <v>1.5252766142148676E-2</v>
       </c>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.25">
@@ -5673,11 +5671,11 @@
       </c>
       <c r="U22">
         <f t="shared" si="9"/>
-        <v>136.75536175168631</v>
+        <v>4.0032003283054056</v>
       </c>
       <c r="V22">
         <f t="shared" si="10"/>
-        <v>12.889669627868761</v>
+        <v>0.37731558766759776</v>
       </c>
       <c r="W22">
         <f t="shared" si="11"/>
@@ -5705,19 +5703,19 @@
       </c>
       <c r="AC22">
         <f t="shared" si="17"/>
-        <v>65.400362563243334</v>
+        <v>1.9144459824533346</v>
       </c>
       <c r="AD22">
         <f t="shared" si="18"/>
-        <v>6.164336761233117</v>
+        <v>0.18044685510145422</v>
       </c>
       <c r="AE22">
         <f t="shared" si="19"/>
-        <v>5.5901829634128317</v>
+        <v>0.16363981629514124</v>
       </c>
       <c r="AF22">
         <f t="shared" si="20"/>
-        <v>0.52691204527124824</v>
+        <v>1.5424144586359691E-2</v>
       </c>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.25">
@@ -5788,11 +5786,11 @@
       </c>
       <c r="U23">
         <f t="shared" si="9"/>
-        <v>95.75274773418964</v>
+        <v>2.742298663060196</v>
       </c>
       <c r="V23">
         <f t="shared" si="10"/>
-        <v>15.235588824310783</v>
+        <v>0.43633771199783644</v>
       </c>
       <c r="W23">
         <f t="shared" si="11"/>
@@ -5820,19 +5818,19 @@
       </c>
       <c r="AC23">
         <f t="shared" si="17"/>
-        <v>46.073700536150952</v>
+        <v>1.3195218975153087</v>
       </c>
       <c r="AD23">
         <f t="shared" si="18"/>
-        <v>7.3310112980894271</v>
+        <v>0.20995556741032845</v>
       </c>
       <c r="AE23">
         <f t="shared" si="19"/>
-        <v>3.8279289225859405</v>
+        <v>0.10962948442834804</v>
       </c>
       <c r="AF23">
         <f t="shared" si="20"/>
-        <v>0.60908304183670903</v>
+        <v>1.7443756454469335E-2</v>
       </c>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.25">
@@ -5903,11 +5901,11 @@
       </c>
       <c r="U24">
         <f t="shared" si="9"/>
-        <v>45.45426854993277</v>
+        <v>1.2731359944717151</v>
       </c>
       <c r="V24">
         <f t="shared" si="10"/>
-        <v>26.288567924663464</v>
+        <v>0.73632077108967475</v>
       </c>
       <c r="W24">
         <f t="shared" si="11"/>
@@ -5935,19 +5933,19 @@
       </c>
       <c r="AC24">
         <f t="shared" si="17"/>
-        <v>21.993377431484312</v>
+        <v>0.61601608256582474</v>
       </c>
       <c r="AD24">
         <f t="shared" si="18"/>
-        <v>12.719919835646346</v>
+        <v>0.3562743017581802</v>
       </c>
       <c r="AE24">
         <f t="shared" si="19"/>
-        <v>1.7764923783249893</v>
+        <v>4.9758063717726529E-2</v>
       </c>
       <c r="AF24">
         <f t="shared" si="20"/>
-        <v>1.0274387013850204</v>
+        <v>2.8777697553522295E-2</v>
       </c>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.25">
